--- a/Outputs/3. Prosumer percentage/Output Files/75/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/75/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613929.144068708</v>
+        <v>1610158.012466609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5932966.508100476</v>
+        <v>5932966.508100477</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1847921.546297498</v>
+        <v>1847921.546297497</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.4742268619419</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>111.8270308049554</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588048</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>82.85798684944075</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>121.0772225578371</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -904,19 +904,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>362.586993466765</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>94.08266786145819</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>5.577638402185605</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>68.27578226575774</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>316.9944202416493</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.14197242058547</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.6957537138011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>192.9312320650013</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>368.2758432388703</v>
+        <v>308.4960544879101</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1429,7 +1429,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.6368624465502</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>227.0672929610291</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>395.4622661457558</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>211.6544656203724</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.01267838470278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -1815,25 +1815,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>28.87122440004899</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>389.2675427547074</v>
+        <v>404.5038856354681</v>
       </c>
       <c r="H17" t="n">
         <v>306.3951769463901</v>
@@ -1897,10 +1897,10 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T17" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.1478526587745</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>105.547418107044</v>
+        <v>105.5474181070439</v>
       </c>
       <c r="T18" t="n">
         <v>157.4527394715024</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>236.890456040183</v>
+        <v>102.2015495646435</v>
       </c>
       <c r="U19" t="n">
-        <v>70.07334379993779</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2098,10 +2098,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H20" t="n">
-        <v>36.67991649299397</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I20" t="n">
-        <v>80.20209470631109</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.3841955395356</v>
+        <v>160.6747718133549</v>
       </c>
       <c r="U20" t="n">
         <v>254.4789175726347</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.48354887373303</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>236.890456040183</v>
+        <v>102.2015495646433</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I23" t="n">
-        <v>80.20209470631106</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.3841955395356</v>
+        <v>160.6747718133549</v>
       </c>
       <c r="U23" t="n">
         <v>254.4789175726347</v>
       </c>
       <c r="V23" t="n">
-        <v>76.62391866348868</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>105.547418107044</v>
+        <v>105.5474181070439</v>
       </c>
       <c r="T24" t="n">
         <v>157.4527394715024</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>41.04446818012045</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.9730879184303</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.890456040183</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H26" t="n">
-        <v>306.3951769463901</v>
+        <v>116.8820111993051</v>
       </c>
       <c r="I26" t="n">
-        <v>80.20209470631106</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.47267710704416</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U26" t="n">
         <v>254.4789175726347</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>105.547418107044</v>
+        <v>105.5474181070439</v>
       </c>
       <c r="T27" t="n">
         <v>157.4527394715024</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.890456040183</v>
+        <v>102.2015495646435</v>
       </c>
       <c r="U28" t="n">
         <v>279.9668111419812</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>272.7566895704916</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.3841955395356</v>
+        <v>80.47267710704507</v>
       </c>
       <c r="U29" t="n">
         <v>254.4789175726347</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>126.9217033993411</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>105.547418107044</v>
+        <v>105.5474181070439</v>
       </c>
       <c r="T30" t="n">
         <v>157.4527394715024</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.5715920280503</v>
+        <v>141.5900613706749</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U31" t="n">
         <v>279.9668111419812</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.3841955395356</v>
+        <v>160.6747718133549</v>
       </c>
       <c r="U32" t="n">
         <v>254.4789175726347</v>
       </c>
       <c r="V32" t="n">
-        <v>287.629755390703</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>105.547418107044</v>
+        <v>105.5474181070439</v>
       </c>
       <c r="T33" t="n">
         <v>157.4527394715024</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.804817855320744</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5163818121864</v>
@@ -3207,7 +3207,7 @@
         <v>147.5645421535798</v>
       </c>
       <c r="I34" t="n">
-        <v>113.3329517744758</v>
+        <v>13.04566412916832</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>183.4559799036662</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U34" t="n">
         <v>279.9668111419812</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>216.6058021207605</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.3841955395356</v>
+        <v>160.6747718133558</v>
       </c>
       <c r="U35" t="n">
         <v>254.4789175726347</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>105.547418107044</v>
+        <v>105.5474181070439</v>
       </c>
       <c r="T36" t="n">
         <v>157.4527394715024</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.2015495646435</v>
       </c>
       <c r="T37" t="n">
-        <v>203.9659984606161</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9668111419812</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3523,7 +3523,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I38" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T38" t="n">
-        <v>219.3841955395356</v>
+        <v>29.87102979245169</v>
       </c>
       <c r="U38" t="n">
         <v>254.4789175726347</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>110.2074374027874</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3602,7 +3602,7 @@
         <v>69.33120551494848</v>
       </c>
       <c r="I39" t="n">
-        <v>18.01521888122694</v>
+        <v>18.01521888122692</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>55.5178811127857</v>
+        <v>102.2015495646439</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>370.7393995265725</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I41" t="n">
-        <v>80.20209470631104</v>
+        <v>80.20209470631102</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>219.3841955395356</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4789175726347</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>168.8971875834934</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3839,7 +3839,7 @@
         <v>69.33120551494848</v>
       </c>
       <c r="I42" t="n">
-        <v>18.01521888122694</v>
+        <v>18.01521888122692</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>51.13380285456478</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.890456040183</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.16616457602102</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I44" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>133.8024655503941</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4789175726347</v>
+        <v>252.9480407333605</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4076,7 +4076,7 @@
         <v>69.33120551494848</v>
       </c>
       <c r="I45" t="n">
-        <v>18.01521888122694</v>
+        <v>18.01521888122692</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.6418201808471</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5163818121864</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>230.005871192618</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.6022603407614</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>580.8635003818958</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>176.3995704749564</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1225.22700482164</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X2" t="n">
-        <v>824.5836069905924</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.6469339386825</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>187.8810127971431</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>187.8810127971431</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>187.8810127971431</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1448.863757444556</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1209.315018421258</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1209.315018421258</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>935.4292733607799</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>935.4292733607799</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X4" t="n">
-        <v>697.0854112204634</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.349712609228</v>
+        <v>125.4600218411584</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1199.239803110925</v>
+        <v>1323.942548765929</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.155616464599</v>
+        <v>1317.858362119603</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.732090598063</v>
+        <v>1317.434836253068</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>903.0946207699644</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1993.221283640245</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1993.221283640245</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.221283640245</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.221283640245</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.460982775414</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1609.460982775414</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.460982775414</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>508.1659581184966</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638.8945059249344</v>
+        <v>810.693476121968</v>
       </c>
       <c r="C7" t="n">
-        <v>638.8945059249344</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D7" t="n">
-        <v>633.2605277409085</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E7" t="n">
-        <v>472.349712609228</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
         <v>307.7185867198193</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1502.198545618373</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1502.198545618373</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1502.198545618373</v>
       </c>
       <c r="U7" t="n">
-        <v>1101.974066676486</v>
+        <v>1502.198545618373</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.974066676486</v>
+        <v>1502.198545618373</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.974066676486</v>
+        <v>1223.128881127248</v>
       </c>
       <c r="X7" t="n">
-        <v>863.6302045361697</v>
+        <v>1223.128881127248</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.8945059249344</v>
+        <v>998.3931825160124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.6830684215697</v>
+        <v>884.7548618173139</v>
       </c>
       <c r="C8" t="n">
-        <v>968.5988817752439</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D8" t="n">
-        <v>968.1753559087084</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E8" t="n">
-        <v>957.8755444660092</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
         <v>128.1168483125289</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W8" t="n">
-        <v>997.1688666927112</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X8" t="n">
-        <v>997.1688666927112</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.8638440456551</v>
+        <v>1294.976041481803</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>1268.263812524886</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1268.263812524886</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>843.6595175967814</v>
+        <v>963.8485448562819</v>
       </c>
       <c r="C10" t="n">
-        <v>843.6595175967814</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D10" t="n">
-        <v>684.1648729196913</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E10" t="n">
-        <v>523.2540577880108</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F10" t="n">
-        <v>358.622931898602</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1321.552118760396</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1082.003379737098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1082.003379737098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.003379737098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.003379737098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6595175967814</v>
+        <v>1376.283949861562</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.6595175967814</v>
+        <v>1151.548251250326</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G11" t="n">
         <v>490.5039577458317</v>
@@ -5077,16 +5077,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M12" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>417.7030407312917</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>417.7030407312917</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>417.7030407312917</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>417.7030407312917</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
         <v>93.2436976906228</v>
@@ -5232,19 +5232,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>547.3402982826956</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X13" t="n">
-        <v>317.9793963018581</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>605.4027471253361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5314,16 +5314,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3833.844444016082</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W14" t="n">
-        <v>3450.08414315125</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X14" t="n">
-        <v>3049.440745320202</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y14" t="n">
-        <v>2648.504072268292</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>2083.796217986828</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>597.8918233687357</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="C16" t="n">
-        <v>569.5961886367127</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1015439596227</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1015439596227</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F16" t="n">
         <v>410.1015439596227</v>
@@ -5463,25 +5463,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1297.821136963575</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1023.935391903097</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W16" t="n">
-        <v>1023.935391903097</v>
+        <v>799.4683684602668</v>
       </c>
       <c r="X16" t="n">
-        <v>785.5915297627801</v>
+        <v>799.4683684602668</v>
       </c>
       <c r="Y16" t="n">
-        <v>785.5915297627801</v>
+        <v>574.7326698490315</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2530.248435478017</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C17" t="n">
-        <v>2120.123844791287</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.659914884348</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.319699401245</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F17" t="n">
-        <v>880.2892873549322</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G17" t="n">
         <v>487.0897492188641</v>
@@ -5545,22 +5545,22 @@
         <v>4697.247739068497</v>
       </c>
       <c r="T17" t="n">
-        <v>4475.647541553814</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="U17" t="n">
-        <v>4475.647541553814</v>
+        <v>4491.037786887917</v>
       </c>
       <c r="V17" t="n">
-        <v>4125.809986890295</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W17" t="n">
-        <v>3742.049686025464</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X17" t="n">
-        <v>3341.406288194416</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y17" t="n">
-        <v>2940.469615142506</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J18" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K18" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L18" t="n">
-        <v>96.58745462017609</v>
+        <v>1440.654639430124</v>
       </c>
       <c r="M18" t="n">
-        <v>524.2700203362632</v>
+        <v>1528.411518449027</v>
       </c>
       <c r="N18" t="n">
-        <v>1416.817886091491</v>
+        <v>1528.411518449027</v>
       </c>
       <c r="O18" t="n">
-        <v>2138.055429104457</v>
+        <v>1528.411518449027</v>
       </c>
       <c r="P18" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="Q18" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R18" t="n">
         <v>2138.055429104457</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.9929144289466</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C19" t="n">
-        <v>416.9929144289466</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D19" t="n">
-        <v>257.4982697518566</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E19" t="n">
         <v>96.58745462017609</v>
@@ -5697,28 +5697,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R19" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S19" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T19" t="n">
-        <v>1179.279139278824</v>
+        <v>1583.11689004665</v>
       </c>
       <c r="U19" t="n">
-        <v>1108.497983925352</v>
+        <v>1300.322131317376</v>
       </c>
       <c r="V19" t="n">
-        <v>1108.497983925352</v>
+        <v>1026.436386256898</v>
       </c>
       <c r="W19" t="n">
-        <v>829.4283194342263</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X19" t="n">
-        <v>829.4283194342263</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y19" t="n">
-        <v>604.692620822991</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2273.199023788487</v>
+        <v>2464.626463937057</v>
       </c>
       <c r="C20" t="n">
-        <v>1863.074433101757</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.610503194817</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E20" t="n">
-        <v>1044.270287711714</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F20" t="n">
-        <v>623.2398756654015</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G20" t="n">
-        <v>214.6500921952317</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H20" t="n">
-        <v>177.5996714952378</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I20" t="n">
         <v>96.58745462017609</v>
@@ -5755,7 +5755,7 @@
         <v>362.2940686653947</v>
       </c>
       <c r="K20" t="n">
-        <v>917.7207759499379</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L20" t="n">
         <v>1651.733671893703</v>
@@ -5779,25 +5779,25 @@
         <v>4829.372731008804</v>
       </c>
       <c r="S20" t="n">
-        <v>4697.247739068497</v>
+        <v>4829.372731008804</v>
       </c>
       <c r="T20" t="n">
-        <v>4475.647541553814</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U20" t="n">
-        <v>4218.598129864285</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V20" t="n">
-        <v>3868.760575200765</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W20" t="n">
-        <v>3485.000274335934</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X20" t="n">
-        <v>3084.356876504886</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y20" t="n">
-        <v>2683.420203452976</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J21" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742188</v>
       </c>
       <c r="K21" t="n">
-        <v>564.1218141627101</v>
+        <v>763.7965853167527</v>
       </c>
       <c r="L21" t="n">
-        <v>1240.979868276081</v>
+        <v>1440.654639430123</v>
       </c>
       <c r="M21" t="n">
-        <v>2102.359657673852</v>
+        <v>1440.654639430123</v>
       </c>
       <c r="N21" t="n">
-        <v>2138.055429104457</v>
+        <v>1440.654639430123</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.055429104457</v>
+        <v>1440.654639430123</v>
       </c>
       <c r="P21" t="n">
-        <v>2138.055429104457</v>
+        <v>2016.229618495079</v>
       </c>
       <c r="Q21" t="n">
         <v>2138.055429104457</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>744.344892325101</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C22" t="n">
-        <v>573.2515198868175</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3085412264811</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3085412264811</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3085412264811</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="G22" t="n">
-        <v>360.1202767697272</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="H22" t="n">
-        <v>211.0651836853032</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I22" t="n">
         <v>96.58745462017609</v>
@@ -5937,25 +5937,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S22" t="n">
-        <v>1501.041707886021</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T22" t="n">
-        <v>1261.758418956543</v>
+        <v>1583.11689004665</v>
       </c>
       <c r="U22" t="n">
-        <v>1261.758418956543</v>
+        <v>1300.322131317376</v>
       </c>
       <c r="V22" t="n">
-        <v>1261.758418956543</v>
+        <v>1026.436386256898</v>
       </c>
       <c r="W22" t="n">
-        <v>982.6887544654176</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X22" t="n">
-        <v>744.344892325101</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.344892325101</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2545.638680812119</v>
+        <v>2464.626463937057</v>
       </c>
       <c r="C23" t="n">
-        <v>2135.514090125389</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D23" t="n">
-        <v>1731.05016021845</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E23" t="n">
-        <v>1316.709944735346</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F23" t="n">
-        <v>895.679532689034</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G23" t="n">
-        <v>487.0897492188641</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H23" t="n">
-        <v>177.5996714952378</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I23" t="n">
         <v>96.58745462017609</v>
@@ -6016,25 +6016,25 @@
         <v>4829.372731008804</v>
       </c>
       <c r="S23" t="n">
-        <v>4697.247739068497</v>
+        <v>4829.372731008804</v>
       </c>
       <c r="T23" t="n">
-        <v>4475.647541553814</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U23" t="n">
-        <v>4218.598129864285</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V23" t="n">
-        <v>4141.200232224397</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W23" t="n">
-        <v>3757.439931359566</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X23" t="n">
-        <v>3356.796533528518</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.859860476608</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>763.796585316753</v>
       </c>
       <c r="M24" t="n">
-        <v>1416.817886091491</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N24" t="n">
-        <v>1416.817886091491</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O24" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P24" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q24" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R24" t="n">
         <v>2138.055429104457</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.4619380507628</v>
+        <v>423.6176148913851</v>
       </c>
       <c r="C25" t="n">
-        <v>577.4619380507628</v>
+        <v>252.5242424531016</v>
       </c>
       <c r="D25" t="n">
-        <v>577.4619380507628</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="E25" t="n">
-        <v>577.4619380507628</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="F25" t="n">
-        <v>412.8308121613541</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="G25" t="n">
-        <v>245.6425477046001</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="H25" t="n">
-        <v>96.58745462017609</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="I25" t="n">
         <v>96.58745462017609</v>
@@ -6174,25 +6174,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S25" t="n">
-        <v>1561.125437164037</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.842148234559</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U25" t="n">
-        <v>1039.047389505285</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V25" t="n">
-        <v>765.1616444448072</v>
+        <v>890.3869857765551</v>
       </c>
       <c r="W25" t="n">
-        <v>765.1616444448072</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="X25" t="n">
-        <v>765.1616444448072</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="Y25" t="n">
-        <v>765.1616444448072</v>
+        <v>611.3173212854294</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2545.638680812119</v>
+        <v>2273.199023788487</v>
       </c>
       <c r="C26" t="n">
-        <v>2135.514090125389</v>
+        <v>1863.074433101757</v>
       </c>
       <c r="D26" t="n">
-        <v>1731.05016021845</v>
+        <v>1458.610503194817</v>
       </c>
       <c r="E26" t="n">
-        <v>1316.709944735346</v>
+        <v>1044.270287711714</v>
       </c>
       <c r="F26" t="n">
-        <v>895.679532689034</v>
+        <v>623.2398756654015</v>
       </c>
       <c r="G26" t="n">
-        <v>487.0897492188641</v>
+        <v>214.6500921952317</v>
       </c>
       <c r="H26" t="n">
-        <v>177.5996714952378</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I26" t="n">
         <v>96.58745462017609</v>
       </c>
       <c r="J26" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653942</v>
       </c>
       <c r="K26" t="n">
-        <v>917.7207759499374</v>
+        <v>917.720775949937</v>
       </c>
       <c r="L26" t="n">
-        <v>1651.733671893703</v>
+        <v>1651.733671893702</v>
       </c>
       <c r="M26" t="n">
-        <v>2451.887804812203</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N26" t="n">
         <v>3229.290047365233</v>
@@ -6253,25 +6253,25 @@
         <v>4829.372731008804</v>
       </c>
       <c r="S26" t="n">
-        <v>4748.087198577447</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="T26" t="n">
-        <v>4748.087198577447</v>
+        <v>4475.647541553814</v>
       </c>
       <c r="U26" t="n">
-        <v>4491.037786887917</v>
+        <v>4218.598129864285</v>
       </c>
       <c r="V26" t="n">
-        <v>4141.200232224397</v>
+        <v>3868.760575200765</v>
       </c>
       <c r="W26" t="n">
-        <v>3757.439931359566</v>
+        <v>3485.000274335934</v>
       </c>
       <c r="X26" t="n">
-        <v>3356.796533528518</v>
+        <v>3084.356876504886</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.859860476608</v>
+        <v>2683.420203452976</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J27" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K27" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L27" t="n">
-        <v>773.4455087335467</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="M27" t="n">
-        <v>1634.825298131318</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N27" t="n">
-        <v>1634.825298131318</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O27" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P27" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q27" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R27" t="n">
         <v>2138.055429104457</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>427.1754717355495</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C28" t="n">
-        <v>256.082099297266</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D28" t="n">
         <v>96.58745462017609</v>
@@ -6414,22 +6414,22 @@
         <v>1686.350778495785</v>
       </c>
       <c r="T28" t="n">
-        <v>1447.067489566307</v>
+        <v>1583.11689004665</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.272730837033</v>
+        <v>1300.322131317376</v>
       </c>
       <c r="V28" t="n">
-        <v>890.3869857765551</v>
+        <v>1026.436386256898</v>
       </c>
       <c r="W28" t="n">
-        <v>614.8751781295939</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X28" t="n">
-        <v>614.8751781295939</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y28" t="n">
-        <v>614.8751781295939</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>177.5996714952378</v>
       </c>
       <c r="I29" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J29" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653948</v>
       </c>
       <c r="K29" t="n">
-        <v>917.7207759499374</v>
+        <v>917.7207759499379</v>
       </c>
       <c r="L29" t="n">
         <v>1651.733671893703</v>
@@ -6475,34 +6475,34 @@
         <v>2451.887804812203</v>
       </c>
       <c r="N29" t="n">
-        <v>3229.290047365233</v>
+        <v>3229.290047365234</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.792320580214</v>
+        <v>3895.792320580215</v>
       </c>
       <c r="P29" t="n">
-        <v>4444.469243587424</v>
+        <v>4444.469243587425</v>
       </c>
       <c r="Q29" t="n">
-        <v>4780.289126484126</v>
+        <v>4780.289126484127</v>
       </c>
       <c r="R29" t="n">
-        <v>4829.372731008804</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="S29" t="n">
-        <v>4697.247739068497</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="T29" t="n">
-        <v>4475.647541553814</v>
+        <v>4748.087198577447</v>
       </c>
       <c r="U29" t="n">
-        <v>4218.598129864285</v>
+        <v>4491.037786887917</v>
       </c>
       <c r="V29" t="n">
-        <v>3868.760575200765</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W29" t="n">
-        <v>3485.000274335934</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X29" t="n">
         <v>3356.796533528518</v>
@@ -6539,31 +6539,31 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I30" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J30" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K30" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L30" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M30" t="n">
-        <v>524.2700203362632</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N30" t="n">
-        <v>1416.817886091491</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O30" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P30" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q30" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R30" t="n">
         <v>2138.055429104457</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>422.1293956412654</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="C31" t="n">
-        <v>422.1293956412654</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="D31" t="n">
-        <v>422.1293956412654</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="E31" t="n">
-        <v>261.2185805095849</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="F31" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="G31" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="H31" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I31" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J31" t="n">
         <v>114.974948094715</v>
@@ -6645,28 +6645,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R31" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S31" t="n">
-        <v>1496.22342606246</v>
+        <v>1543.330514485002</v>
       </c>
       <c r="T31" t="n">
-        <v>1496.22342606246</v>
+        <v>1304.047225555524</v>
       </c>
       <c r="U31" t="n">
-        <v>1213.428667333186</v>
+        <v>1021.25246682625</v>
       </c>
       <c r="V31" t="n">
-        <v>939.5429222727076</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="W31" t="n">
-        <v>660.473257781582</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X31" t="n">
-        <v>422.1293956412654</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y31" t="n">
-        <v>422.1293956412654</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="32">
@@ -6703,10 +6703,10 @@
         <v>362.2940686653947</v>
       </c>
       <c r="K32" t="n">
-        <v>917.7207759499377</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L32" t="n">
-        <v>1651.733671893703</v>
+        <v>1651.733671893702</v>
       </c>
       <c r="M32" t="n">
         <v>2451.887804812203</v>
@@ -6730,10 +6730,10 @@
         <v>4829.372731008804</v>
       </c>
       <c r="T32" t="n">
-        <v>4607.772533494121</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U32" t="n">
-        <v>4350.723121804592</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V32" t="n">
         <v>4060.188015349336</v>
@@ -6779,28 +6779,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J33" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K33" t="n">
-        <v>96.58745462017609</v>
+        <v>346.7753186169728</v>
       </c>
       <c r="L33" t="n">
-        <v>96.58745462017609</v>
+        <v>1023.633372730343</v>
       </c>
       <c r="M33" t="n">
-        <v>957.9672440179473</v>
+        <v>1023.633372730343</v>
       </c>
       <c r="N33" t="n">
-        <v>1850.515109773175</v>
+        <v>1023.633372730343</v>
       </c>
       <c r="O33" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="P33" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q33" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R33" t="n">
         <v>2138.055429104457</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>700.8334225253047</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="C34" t="n">
-        <v>700.8334225253047</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="D34" t="n">
-        <v>691.9396671158898</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="E34" t="n">
-        <v>691.9396671158898</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3085412264811</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="G34" t="n">
-        <v>360.1202767697272</v>
+        <v>258.8199862189115</v>
       </c>
       <c r="H34" t="n">
-        <v>211.0651836853031</v>
+        <v>109.7648931344875</v>
       </c>
       <c r="I34" t="n">
         <v>96.58745462017609</v>
@@ -6888,22 +6888,22 @@
         <v>1501.041707886021</v>
       </c>
       <c r="T34" t="n">
-        <v>1501.041707886021</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.246949156747</v>
+        <v>978.9636602272692</v>
       </c>
       <c r="V34" t="n">
-        <v>1218.246949156747</v>
+        <v>705.0779151667912</v>
       </c>
       <c r="W34" t="n">
-        <v>939.1772846656213</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="X34" t="n">
-        <v>700.8334225253047</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="Y34" t="n">
-        <v>700.8334225253047</v>
+        <v>426.0082506756655</v>
       </c>
     </row>
     <row r="35">
@@ -6964,25 +6964,25 @@
         <v>4829.372731008805</v>
       </c>
       <c r="S35" t="n">
-        <v>4697.247739068498</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="T35" t="n">
-        <v>4475.647541553815</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U35" t="n">
-        <v>4218.598129864286</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V35" t="n">
-        <v>3868.760575200766</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W35" t="n">
-        <v>3485.000274335935</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X35" t="n">
-        <v>3084.356876504887</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y35" t="n">
-        <v>2683.420203452977</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>296.2622257742189</v>
       </c>
       <c r="K36" t="n">
-        <v>384.127773951458</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L36" t="n">
-        <v>384.127773951458</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="M36" t="n">
-        <v>1245.507563349229</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N36" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.055429104457</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P36" t="n">
-        <v>2138.055429104457</v>
+        <v>1744.87091574331</v>
       </c>
       <c r="Q36" t="n">
-        <v>2138.055429104457</v>
+        <v>2103.986497513983</v>
       </c>
       <c r="R36" t="n">
         <v>2138.055429104457</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>267.6808270584596</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="C37" t="n">
         <v>96.5874546201761</v>
@@ -7122,25 +7122,25 @@
         <v>1686.350778495785</v>
       </c>
       <c r="S37" t="n">
-        <v>1686.350778495785</v>
+        <v>1583.11689004665</v>
       </c>
       <c r="T37" t="n">
-        <v>1480.324517424456</v>
+        <v>1583.11689004665</v>
       </c>
       <c r="U37" t="n">
-        <v>1197.529758695181</v>
+        <v>1300.322131317376</v>
       </c>
       <c r="V37" t="n">
-        <v>1197.529758695181</v>
+        <v>1026.436386256898</v>
       </c>
       <c r="W37" t="n">
-        <v>918.4600942040558</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X37" t="n">
-        <v>680.1162320637393</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y37" t="n">
-        <v>455.380533452504</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2545.638680812119</v>
+        <v>2464.626463937057</v>
       </c>
       <c r="C38" t="n">
-        <v>2135.514090125389</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D38" t="n">
-        <v>1731.05016021845</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E38" t="n">
-        <v>1316.709944735346</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F38" t="n">
-        <v>895.679532689034</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G38" t="n">
-        <v>487.0897492188641</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H38" t="n">
-        <v>177.5996714952378</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I38" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J38" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653948</v>
       </c>
       <c r="K38" t="n">
-        <v>917.7207759499374</v>
+        <v>917.7207759499377</v>
       </c>
       <c r="L38" t="n">
         <v>1651.733671893703</v>
       </c>
       <c r="M38" t="n">
-        <v>2451.887804812203</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N38" t="n">
         <v>3229.290047365233</v>
@@ -7192,34 +7192,34 @@
         <v>3895.792320580214</v>
       </c>
       <c r="P38" t="n">
-        <v>4444.469243587424</v>
+        <v>4444.469243587425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4780.289126484126</v>
+        <v>4780.289126484127</v>
       </c>
       <c r="R38" t="n">
-        <v>4829.372731008804</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="S38" t="n">
-        <v>4697.247739068497</v>
+        <v>4697.247739068498</v>
       </c>
       <c r="T38" t="n">
-        <v>4475.647541553814</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U38" t="n">
-        <v>4218.598129864285</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V38" t="n">
-        <v>3868.760575200765</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W38" t="n">
-        <v>3757.439931359566</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X38" t="n">
-        <v>3356.796533528518</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.859860476608</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I39" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J39" t="n">
-        <v>296.2622257742189</v>
+        <v>296.262225774219</v>
       </c>
       <c r="K39" t="n">
         <v>763.796585316753</v>
       </c>
       <c r="L39" t="n">
-        <v>1169.295936678354</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M39" t="n">
-        <v>1169.295936678354</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N39" t="n">
-        <v>1169.295936678354</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O39" t="n">
-        <v>1169.295936678354</v>
+        <v>1169.295936678353</v>
       </c>
       <c r="P39" t="n">
         <v>1744.87091574331</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.1844887256893</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="C40" t="n">
-        <v>571.1844887256893</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="D40" t="n">
-        <v>571.1844887256893</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="E40" t="n">
-        <v>410.2736735940089</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="F40" t="n">
-        <v>245.6425477046001</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="G40" t="n">
-        <v>245.6425477046001</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="H40" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I40" t="n">
-        <v>96.58745462017609</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J40" t="n">
         <v>114.974948094715</v>
@@ -7338,16 +7338,16 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L40" t="n">
-        <v>545.551448299124</v>
+        <v>545.5514482991241</v>
       </c>
       <c r="M40" t="n">
-        <v>844.360335726814</v>
+        <v>844.3603357268141</v>
       </c>
       <c r="N40" t="n">
         <v>1134.516994361132</v>
       </c>
       <c r="O40" t="n">
-        <v>1402.68417153728</v>
+        <v>1402.684171537281</v>
       </c>
       <c r="P40" t="n">
         <v>1615.724016557157</v>
@@ -7356,28 +7356,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R40" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S40" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T40" t="n">
-        <v>1362.48376041761</v>
+        <v>1583.11689004665</v>
       </c>
       <c r="U40" t="n">
-        <v>1362.48376041761</v>
+        <v>1300.322131317376</v>
       </c>
       <c r="V40" t="n">
-        <v>1088.598015357132</v>
+        <v>1026.436386256898</v>
       </c>
       <c r="W40" t="n">
-        <v>809.5283508660059</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X40" t="n">
-        <v>571.1844887256893</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y40" t="n">
-        <v>571.1844887256893</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2506.654575141869</v>
+        <v>2542.294923882566</v>
       </c>
       <c r="C41" t="n">
         <v>2132.170333195836</v>
@@ -7408,55 +7408,55 @@
         <v>174.2559145656845</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J41" t="n">
         <v>358.9503117358414</v>
       </c>
       <c r="K41" t="n">
-        <v>914.3770190203841</v>
+        <v>914.3770190203843</v>
       </c>
       <c r="L41" t="n">
-        <v>1648.389914964149</v>
+        <v>1648.38991496415</v>
       </c>
       <c r="M41" t="n">
-        <v>2448.544047882649</v>
+        <v>2448.54404788265</v>
       </c>
       <c r="N41" t="n">
-        <v>3225.94629043568</v>
+        <v>3225.946290435681</v>
       </c>
       <c r="O41" t="n">
-        <v>3728.604474102549</v>
+        <v>3892.448563650662</v>
       </c>
       <c r="P41" t="n">
-        <v>4277.281397109758</v>
+        <v>4441.125486657871</v>
       </c>
       <c r="Q41" t="n">
-        <v>4613.101280006462</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S41" t="n">
         <v>4530.059892590833</v>
       </c>
       <c r="T41" t="n">
-        <v>4308.45969507615</v>
+        <v>4308.459695076151</v>
       </c>
       <c r="U41" t="n">
-        <v>4051.41028338662</v>
+        <v>4308.459695076151</v>
       </c>
       <c r="V41" t="n">
-        <v>3701.5727287231</v>
+        <v>4137.856475294844</v>
       </c>
       <c r="W41" t="n">
-        <v>3317.812427858269</v>
+        <v>3754.096174430013</v>
       </c>
       <c r="X41" t="n">
-        <v>3317.812427858269</v>
+        <v>3353.452776598966</v>
       </c>
       <c r="Y41" t="n">
-        <v>2916.875754806359</v>
+        <v>2952.516103547056</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>111.4408884797409</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>292.9184688446657</v>
       </c>
       <c r="K42" t="n">
-        <v>560.7780572331568</v>
+        <v>760.4528283871997</v>
       </c>
       <c r="L42" t="n">
-        <v>1237.636111346527</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="M42" t="n">
-        <v>1413.474129161937</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="N42" t="n">
-        <v>1413.474129161937</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.711672174903</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="P42" t="n">
-        <v>2134.711672174903</v>
+        <v>1741.527158813756</v>
       </c>
       <c r="Q42" t="n">
-        <v>2134.711672174903</v>
+        <v>2100.642740584429</v>
       </c>
       <c r="R42" t="n">
         <v>2134.711672174903</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>144.8940036043246</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>144.8940036043246</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J43" t="n">
         <v>111.6311911651617</v>
       </c>
       <c r="K43" t="n">
-        <v>273.2578644198693</v>
+        <v>273.2578644198694</v>
       </c>
       <c r="L43" t="n">
         <v>542.2076913695707</v>
@@ -7581,13 +7581,13 @@
         <v>841.0165787972608</v>
       </c>
       <c r="N43" t="n">
-        <v>1131.173237431578</v>
+        <v>1131.173237431579</v>
       </c>
       <c r="O43" t="n">
         <v>1399.340414607727</v>
       </c>
       <c r="P43" t="n">
-        <v>1612.380259627603</v>
+        <v>1612.380259627604</v>
       </c>
       <c r="Q43" t="n">
         <v>1683.007021566232</v>
@@ -7596,25 +7596,25 @@
         <v>1683.007021566232</v>
       </c>
       <c r="S43" t="n">
-        <v>1497.697950956468</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="T43" t="n">
-        <v>1258.41466202699</v>
+        <v>1443.723732636754</v>
       </c>
       <c r="U43" t="n">
-        <v>975.6199032977158</v>
+        <v>1160.92897390748</v>
       </c>
       <c r="V43" t="n">
-        <v>701.7341582372378</v>
+        <v>887.0432288470022</v>
       </c>
       <c r="W43" t="n">
-        <v>422.6644937461122</v>
+        <v>607.9735643558765</v>
       </c>
       <c r="X43" t="n">
-        <v>184.3206316057955</v>
+        <v>369.6297022155599</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>144.8940036043246</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2542.294923882566</v>
+        <v>2461.282707007504</v>
       </c>
       <c r="C44" t="n">
-        <v>2132.170333195836</v>
+        <v>2051.158116320774</v>
       </c>
       <c r="D44" t="n">
-        <v>1727.706403288896</v>
+        <v>1646.694186413835</v>
       </c>
       <c r="E44" t="n">
-        <v>1313.366187805793</v>
+        <v>1232.353970930732</v>
       </c>
       <c r="F44" t="n">
-        <v>892.3357757594806</v>
+        <v>811.323558884419</v>
       </c>
       <c r="G44" t="n">
-        <v>483.7459922893108</v>
+        <v>402.7337754142491</v>
       </c>
       <c r="H44" t="n">
-        <v>174.2559145656845</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I44" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J44" t="n">
-        <v>358.9503117358414</v>
+        <v>244.1898267124074</v>
       </c>
       <c r="K44" t="n">
-        <v>750.532929472272</v>
+        <v>799.6165339969502</v>
       </c>
       <c r="L44" t="n">
-        <v>1484.545825416037</v>
+        <v>1533.629429940715</v>
       </c>
       <c r="M44" t="n">
-        <v>2284.699958334537</v>
+        <v>2333.783562859216</v>
       </c>
       <c r="N44" t="n">
-        <v>3062.102200887568</v>
+        <v>3111.185805412247</v>
       </c>
       <c r="O44" t="n">
-        <v>3728.604474102549</v>
+        <v>3777.688078627228</v>
       </c>
       <c r="P44" t="n">
-        <v>4277.281397109758</v>
+        <v>4326.365001634437</v>
       </c>
       <c r="Q44" t="n">
-        <v>4613.101280006462</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R44" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S44" t="n">
-        <v>4530.059892590833</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T44" t="n">
-        <v>4394.905886984374</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U44" t="n">
-        <v>4137.856475294844</v>
+        <v>4406.681813083302</v>
       </c>
       <c r="V44" t="n">
-        <v>4137.856475294844</v>
+        <v>4056.844258419782</v>
       </c>
       <c r="W44" t="n">
-        <v>3754.096174430013</v>
+        <v>3673.083957554951</v>
       </c>
       <c r="X44" t="n">
-        <v>3353.452776598966</v>
+        <v>3272.440559723903</v>
       </c>
       <c r="Y44" t="n">
-        <v>2952.516103547056</v>
+        <v>2871.503886671993</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>111.4408884797409</v>
       </c>
       <c r="I45" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>292.9184688446657</v>
       </c>
       <c r="K45" t="n">
-        <v>560.7780572331568</v>
+        <v>760.4528283871997</v>
       </c>
       <c r="L45" t="n">
-        <v>1054.358547391264</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.358547391264</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.358547391264</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="O45" t="n">
-        <v>1775.59609040423</v>
+        <v>1165.9521797488</v>
       </c>
       <c r="P45" t="n">
-        <v>1775.59609040423</v>
+        <v>1741.527158813756</v>
       </c>
       <c r="Q45" t="n">
-        <v>2134.711672174903</v>
+        <v>2100.642740584429</v>
       </c>
       <c r="R45" t="n">
         <v>2134.711672174903</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>855.9689718668919</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C46" t="n">
-        <v>684.8755994286084</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D46" t="n">
-        <v>684.8755994286084</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E46" t="n">
-        <v>523.9647842969279</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F46" t="n">
-        <v>523.9647842969279</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G46" t="n">
-        <v>356.7765198401739</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H46" t="n">
-        <v>207.7214267557499</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I46" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J46" t="n">
         <v>111.6311911651617</v>
       </c>
       <c r="K46" t="n">
-        <v>273.2578644198693</v>
+        <v>273.2578644198694</v>
       </c>
       <c r="L46" t="n">
         <v>542.2076913695707</v>
@@ -7818,40 +7818,40 @@
         <v>841.0165787972608</v>
       </c>
       <c r="N46" t="n">
-        <v>1131.173237431578</v>
+        <v>1131.173237431579</v>
       </c>
       <c r="O46" t="n">
         <v>1399.340414607727</v>
       </c>
       <c r="P46" t="n">
-        <v>1612.380259627603</v>
+        <v>1612.380259627604</v>
       </c>
       <c r="Q46" t="n">
         <v>1683.007021566232</v>
       </c>
       <c r="R46" t="n">
-        <v>1600.527741888513</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="S46" t="n">
-        <v>1600.527741888513</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="T46" t="n">
-        <v>1600.527741888513</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="U46" t="n">
-        <v>1600.527741888513</v>
+        <v>1400.212262836958</v>
       </c>
       <c r="V46" t="n">
-        <v>1326.641996828035</v>
+        <v>1126.32651777648</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.312834007208</v>
+        <v>847.2568532853543</v>
       </c>
       <c r="X46" t="n">
-        <v>855.9689718668919</v>
+        <v>608.9129911450377</v>
       </c>
       <c r="Y46" t="n">
-        <v>855.9689718668919</v>
+        <v>384.1772925338024</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>296.5410069764447</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>203.417628408394</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>63.89502594283681</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363631</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>332.1773130131622</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
@@ -8306,16 +8306,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>494.1995199774884</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O9" t="n">
-        <v>502.7883324430332</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>311.5827583176448</v>
       </c>
       <c r="N12" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8944,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>84.39507111279303</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>43.97921381771107</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>40.18534987743246</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>470.9782807211271</v>
+        <v>127.6190012290221</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576047</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800827</v>
       </c>
       <c r="P18" t="n">
-        <v>40.25045664277766</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>47.32785377080869</v>
       </c>
       <c r="R18" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>44.43801295009142</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
@@ -9488,22 +9488,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871594</v>
       </c>
       <c r="N21" t="n">
-        <v>70.16914873414945</v>
+        <v>34.11281395576058</v>
       </c>
       <c r="O21" t="n">
-        <v>40.29647650800838</v>
+        <v>40.29647650800837</v>
       </c>
       <c r="P21" t="n">
-        <v>40.25045664277773</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.32785377080874</v>
+        <v>170.3842281237154</v>
       </c>
       <c r="R21" t="n">
-        <v>54.44523725909809</v>
+        <v>54.44523725909808</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>40.18534987743246</v>
+        <v>40.18534987743244</v>
       </c>
       <c r="M24" t="n">
-        <v>698.5931646187539</v>
+        <v>38.97568908871584</v>
       </c>
       <c r="N24" t="n">
-        <v>34.11281395576049</v>
+        <v>34.11281395576047</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>449.8917809136655</v>
       </c>
       <c r="P24" t="n">
-        <v>40.25045664277766</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.32785377080869</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>449.7806542830897</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871584</v>
       </c>
       <c r="N27" t="n">
-        <v>34.11281395576049</v>
+        <v>34.11281395576047</v>
       </c>
       <c r="O27" t="n">
-        <v>548.6097401172394</v>
+        <v>40.29647650800827</v>
       </c>
       <c r="P27" t="n">
-        <v>40.25045664277766</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>47.32785377080869</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>43.97921381771106</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>40.18534987743246</v>
+        <v>40.18534987743244</v>
       </c>
       <c r="M30" t="n">
-        <v>470.9782807211271</v>
+        <v>38.97568908871584</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576047</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>449.8917809136655</v>
       </c>
       <c r="P30" t="n">
-        <v>40.25045664277766</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.32785377080869</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>44.43801295009138</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>43.97921381771106</v>
+        <v>95.00253992150283</v>
       </c>
       <c r="L33" t="n">
-        <v>40.18534987743246</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871584</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576047</v>
       </c>
       <c r="O33" t="n">
-        <v>330.7412435093032</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>40.25045664277766</v>
+        <v>40.25045664277765</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.32785377080869</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>132.7322927846193</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>40.18534987743246</v>
+        <v>449.7806542830897</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871584</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576047</v>
       </c>
       <c r="O36" t="n">
-        <v>40.29647650800828</v>
+        <v>40.29647650800827</v>
       </c>
       <c r="P36" t="n">
-        <v>40.25045664277766</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.32785377080869</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>54.44523725909806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,16 +10907,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>449.7806542830897</v>
+        <v>40.18534987743234</v>
       </c>
       <c r="M39" t="n">
-        <v>38.97568908871582</v>
+        <v>38.97568908871573</v>
       </c>
       <c r="N39" t="n">
-        <v>34.11281395576046</v>
+        <v>34.11281395576036</v>
       </c>
       <c r="O39" t="n">
-        <v>40.29647650800826</v>
+        <v>449.8917809136652</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -11074,16 +11074,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>577.8228734732505</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>298.5191799262816</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>78.69905308228647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>449.7806542830892</v>
       </c>
       <c r="M42" t="n">
-        <v>216.5898484982209</v>
+        <v>38.97568908871573</v>
       </c>
       <c r="N42" t="n">
-        <v>34.11281395576046</v>
+        <v>34.11281395576036</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800816</v>
       </c>
       <c r="P42" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>54.44523725909805</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>214.1569109740354</v>
       </c>
       <c r="K44" t="n">
-        <v>467.2327649872852</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>78.69905308228647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7515015522885</v>
+        <v>449.7806542830892</v>
       </c>
       <c r="M45" t="n">
-        <v>38.97568908871582</v>
+        <v>38.97568908871573</v>
       </c>
       <c r="N45" t="n">
-        <v>34.11281395576046</v>
+        <v>34.11281395576036</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800816</v>
       </c>
       <c r="P45" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>54.44523725909805</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>36.36515802722579</v>
+        <v>96.14494677818601</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23427,10 +23427,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>7.347952183964452</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8.893130557884376</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>134.6847134965117</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>141.3697603291979</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>247.4077434461654</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15.23634288076073</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4789175726347</v>
+        <v>50.33106491386022</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>134.6889064755395</v>
       </c>
       <c r="U19" t="n">
-        <v>209.8934673420434</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>269.7152604533961</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.20209470631109</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>58.70942372618077</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>112.416149356586</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>81.65448688094155</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>134.6889064755397</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>58.70942372618077</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>269.7152604533954</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>116.8552300501986</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I25" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S25" t="n">
-        <v>59.48289198523584</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>189.513165747085</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.33106491386012</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24654,7 +24654,7 @@
         <v>183.4559799036662</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>134.6889064755395</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>3.522278275722783</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>138.9115184324905</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>269.7152604533959</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24846,10 +24846,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.5163818121864</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S31" t="n">
-        <v>76.8843878756159</v>
+        <v>41.86591853299126</v>
       </c>
       <c r="T31" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24970,13 +24970,13 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>58.70942372618077</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>58.70942372618111</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0948803749983</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>100.2872876453075</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189.5131657470841</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>58.70942372617986</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25362,16 +25362,16 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4559799036662</v>
+        <v>81.25443033902268</v>
       </c>
       <c r="T37" t="n">
-        <v>32.9244575795669</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>80.20209470631102</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>189.5131657470839</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>269.7152604533957</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.5163818121864</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I40" t="n">
         <v>113.3329517744758</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>81.65448688094152</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T40" t="n">
-        <v>181.3725749273973</v>
+        <v>134.6889064755391</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>35.28394525329003</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4789175726347</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>177.4419915333907</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>106.7658953757543</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>81.65448688094153</v>
+        <v>81.65448688094152</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.3221770491019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>80.20209470631102</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T44" t="n">
-        <v>85.58172998914156</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.530876839274214</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>67.1808891492568</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>81.65448688094152</v>
       </c>
       <c r="S46" t="n">
         <v>183.4559799036662</v>
@@ -26079,19 +26079,19 @@
         <v>236.890456040183</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>46.27309665359638</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682632.8681487872</v>
+        <v>682632.8681487874</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696551.7859972951</v>
+        <v>696551.7859972952</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>696551.7859972948</v>
+        <v>696551.7859972951</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>696551.7859972952</v>
+        <v>696551.7859972951</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>696551.7859972951</v>
+        <v>696551.7859972952</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681328.2602461664</v>
+        <v>681328.2602461665</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681328.2602461664</v>
+        <v>681328.2602461666</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>504935.4184006167</v>
+      </c>
+      <c r="C2" t="n">
         <v>504935.4184006165</v>
       </c>
-      <c r="C2" t="n">
-        <v>504935.4184006166</v>
-      </c>
       <c r="D2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006164</v>
       </c>
       <c r="E2" t="n">
         <v>448955.4346793955</v>
       </c>
       <c r="F2" t="n">
-        <v>448955.4346793953</v>
+        <v>448955.4346793954</v>
       </c>
       <c r="G2" t="n">
+        <v>460847.1405027144</v>
+      </c>
+      <c r="H2" t="n">
         <v>460847.1405027145</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>460847.1405027144</v>
+      </c>
+      <c r="J2" t="n">
+        <v>460847.1405027145</v>
+      </c>
+      <c r="K2" t="n">
+        <v>460847.1405027144</v>
+      </c>
+      <c r="L2" t="n">
         <v>460847.1405027146</v>
       </c>
-      <c r="I2" t="n">
-        <v>460847.1405027147</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>460847.1405027144</v>
+      </c>
+      <c r="N2" t="n">
         <v>460847.1405027146</v>
       </c>
-      <c r="K2" t="n">
-        <v>460847.1405027146</v>
-      </c>
-      <c r="L2" t="n">
-        <v>460847.1405027147</v>
-      </c>
-      <c r="M2" t="n">
-        <v>460847.1405027147</v>
-      </c>
-      <c r="N2" t="n">
-        <v>460847.1405027145</v>
-      </c>
       <c r="O2" t="n">
+        <v>450840.6740373336</v>
+      </c>
+      <c r="P2" t="n">
         <v>450840.6740373338</v>
-      </c>
-      <c r="P2" t="n">
-        <v>450840.6740373339</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37974.06827759076</v>
+        <v>37974.06827759078</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233655.3690978586</v>
+        <v>233176.1856947705</v>
       </c>
       <c r="C4" t="n">
-        <v>233655.3690978586</v>
+        <v>233176.1856947704</v>
       </c>
       <c r="D4" t="n">
-        <v>233655.3690978587</v>
+        <v>233176.1856947705</v>
       </c>
       <c r="E4" t="n">
-        <v>120511.3639509919</v>
+        <v>119780.5829385068</v>
       </c>
       <c r="F4" t="n">
-        <v>120511.3639509919</v>
+        <v>119780.5829385068</v>
       </c>
       <c r="G4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="H4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="I4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="J4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="K4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="L4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="M4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="N4" t="n">
-        <v>119474.0954352258</v>
+        <v>118749.7751748212</v>
       </c>
       <c r="O4" t="n">
-        <v>116775.8640883529</v>
+        <v>116067.8861731709</v>
       </c>
       <c r="P4" t="n">
-        <v>116775.8640883529</v>
+        <v>116067.8861731709</v>
       </c>
     </row>
     <row r="5">
@@ -26496,7 +26496,7 @@
         <v>74150.00929732189</v>
       </c>
       <c r="K5" t="n">
-        <v>74150.00929732189</v>
+        <v>74150.0092973219</v>
       </c>
       <c r="L5" t="n">
         <v>74150.00929732189</v>
@@ -26505,13 +26505,13 @@
         <v>74150.0092973219</v>
       </c>
       <c r="N5" t="n">
-        <v>74150.00929732189</v>
+        <v>74150.0092973219</v>
       </c>
       <c r="O5" t="n">
-        <v>71608.75403086138</v>
+        <v>71608.7540308614</v>
       </c>
       <c r="P5" t="n">
-        <v>71608.75403086138</v>
+        <v>71608.7540308614</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30955.47433114622</v>
+        <v>31434.65773423461</v>
       </c>
       <c r="C6" t="n">
-        <v>205910.9842242604</v>
+        <v>206390.1676273485</v>
       </c>
       <c r="D6" t="n">
-        <v>205910.9842242604</v>
+        <v>206390.1676273484</v>
       </c>
       <c r="E6" t="n">
-        <v>65449.09758408704</v>
+        <v>64374.07267008119</v>
       </c>
       <c r="F6" t="n">
-        <v>257578.8604835301</v>
+        <v>256503.8355695244</v>
       </c>
       <c r="G6" t="n">
-        <v>229248.967492576</v>
+        <v>228551.085240145</v>
       </c>
       <c r="H6" t="n">
-        <v>267223.0357701669</v>
+        <v>266525.1535177358</v>
       </c>
       <c r="I6" t="n">
-        <v>267223.035770167</v>
+        <v>266525.1535177358</v>
       </c>
       <c r="J6" t="n">
-        <v>130628.234964272</v>
+        <v>129930.3527118409</v>
       </c>
       <c r="K6" t="n">
-        <v>267223.0357701668</v>
+        <v>266525.1535177357</v>
       </c>
       <c r="L6" t="n">
-        <v>267223.035770167</v>
+        <v>266525.1535177359</v>
       </c>
       <c r="M6" t="n">
-        <v>106864.5852694842</v>
+        <v>106166.703017053</v>
       </c>
       <c r="N6" t="n">
-        <v>267223.0357701668</v>
+        <v>266525.1535177359</v>
       </c>
       <c r="O6" t="n">
-        <v>262456.0559181194</v>
+        <v>261419.0420796471</v>
       </c>
       <c r="P6" t="n">
-        <v>262456.0559181197</v>
+        <v>261419.0420796472</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871848</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="H3" t="n">
-        <v>34.10751311871829</v>
+        <v>34.10751311871832</v>
       </c>
       <c r="I3" t="n">
-        <v>34.10751311871849</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="J3" t="n">
-        <v>34.10751311871849</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="K3" t="n">
-        <v>34.10751311871849</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="L3" t="n">
-        <v>34.10751311871849</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="M3" t="n">
-        <v>34.10751311871849</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="N3" t="n">
-        <v>34.10751311871853</v>
+        <v>34.10751311871872</v>
       </c>
       <c r="O3" t="n">
-        <v>34.10751311871853</v>
+        <v>34.10751311871872</v>
       </c>
       <c r="P3" t="n">
-        <v>34.10751311871853</v>
+        <v>34.10751311871872</v>
       </c>
     </row>
     <row r="4">
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871848</v>
+        <v>34.10751311871851</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.79696161941619</v>
+        <v>41.79696161941615</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627597</v>
+        <v>643.4826507627596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.79696161941619</v>
+        <v>41.79696161941615</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151.6447410059027</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>298.3697825233169</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>102.9647224806632</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27548,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>63.45062788105176</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>54.23311445908428</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.84559659238195</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27678,10 +27678,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>152.3220598281335</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>16.1442088755966</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>89.02892453821323</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>380.7853339008053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>21.83209672508775</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>43.02919145391218</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1371156306280139</v>
+        <v>0.137115630628014</v>
       </c>
       <c r="H17" t="n">
-        <v>1.404235452169148</v>
+        <v>1.404235452169149</v>
       </c>
       <c r="I17" t="n">
-        <v>5.28615034978651</v>
+        <v>5.286150349786516</v>
       </c>
       <c r="J17" t="n">
-        <v>11.6375177550144</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K17" t="n">
-        <v>17.44162239949824</v>
+        <v>17.44162239949825</v>
       </c>
       <c r="L17" t="n">
-        <v>21.63787488033032</v>
+        <v>21.63787488033034</v>
       </c>
       <c r="M17" t="n">
-        <v>24.07630497651126</v>
+        <v>24.07630497651128</v>
       </c>
       <c r="N17" t="n">
-        <v>24.46588476203311</v>
+        <v>24.46588476203313</v>
       </c>
       <c r="O17" t="n">
-        <v>23.10244120997579</v>
+        <v>23.10244120997582</v>
       </c>
       <c r="P17" t="n">
-        <v>19.7173990788467</v>
+        <v>19.71739907884672</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.80694555698094</v>
+        <v>14.80694555698096</v>
       </c>
       <c r="R17" t="n">
-        <v>8.613089732436984</v>
+        <v>8.613089732436993</v>
       </c>
       <c r="S17" t="n">
-        <v>3.12452243293587</v>
+        <v>3.124522432935873</v>
       </c>
       <c r="T17" t="n">
-        <v>0.600223673074131</v>
+        <v>0.6002236730741317</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01096925045024111</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07336333010441333</v>
+        <v>0.07336333010441341</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7085353196926236</v>
+        <v>0.7085353196926244</v>
       </c>
       <c r="I18" t="n">
-        <v>2.525886584735284</v>
+        <v>2.525886584735287</v>
       </c>
       <c r="J18" t="n">
-        <v>6.931225849908631</v>
+        <v>6.931225849908638</v>
       </c>
       <c r="K18" t="n">
-        <v>11.84656896690432</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L18" t="n">
-        <v>15.92917393341659</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M18" t="n">
-        <v>18.58859464970157</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N18" t="n">
-        <v>19.0805794379895</v>
+        <v>19.08057943798952</v>
       </c>
       <c r="O18" t="n">
-        <v>17.45500249199171</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P18" t="n">
-        <v>14.00917836002609</v>
+        <v>14.0091783600261</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.364764734030025</v>
+        <v>9.364764734030036</v>
       </c>
       <c r="R18" t="n">
-        <v>4.554961846307349</v>
+        <v>4.554961846307354</v>
       </c>
       <c r="S18" t="n">
-        <v>1.362691679790308</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2957057033594554</v>
+        <v>0.2957057033594557</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004826534875290353</v>
+        <v>0.004826534875290358</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06150535152555791</v>
+        <v>0.06150535152555797</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5468384890181425</v>
+        <v>0.5468384890181431</v>
       </c>
       <c r="I19" t="n">
-        <v>1.849633662241324</v>
+        <v>1.849633662241326</v>
       </c>
       <c r="J19" t="n">
-        <v>4.348428352856944</v>
+        <v>4.348428352856948</v>
       </c>
       <c r="K19" t="n">
-        <v>7.145803568151181</v>
+        <v>7.145803568151188</v>
       </c>
       <c r="L19" t="n">
-        <v>9.144168353172493</v>
+        <v>9.144168353172502</v>
       </c>
       <c r="M19" t="n">
-        <v>9.641243421410863</v>
+        <v>9.641243421410872</v>
       </c>
       <c r="N19" t="n">
-        <v>9.411996202088336</v>
+        <v>9.411996202088346</v>
       </c>
       <c r="O19" t="n">
-        <v>8.693501868357952</v>
+        <v>8.693501868357961</v>
       </c>
       <c r="P19" t="n">
-        <v>7.438792697236564</v>
+        <v>7.438792697236572</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.15023448092649</v>
+        <v>5.150234480926495</v>
       </c>
       <c r="R19" t="n">
-        <v>2.765504260412812</v>
+        <v>2.765504260412815</v>
       </c>
       <c r="S19" t="n">
-        <v>1.071870535222677</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2627955928819292</v>
+        <v>0.2627955928819294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003354837355939526</v>
+        <v>0.003354837355939529</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1371156306280131</v>
+        <v>0.1371156306280133</v>
       </c>
       <c r="H20" t="n">
-        <v>1.40423545216914</v>
+        <v>1.404235452169141</v>
       </c>
       <c r="I20" t="n">
-        <v>5.286150349786482</v>
+        <v>5.286150349786486</v>
       </c>
       <c r="J20" t="n">
-        <v>11.63751775501434</v>
+        <v>11.63751775501435</v>
       </c>
       <c r="K20" t="n">
-        <v>17.44162239949814</v>
+        <v>17.44162239949815</v>
       </c>
       <c r="L20" t="n">
-        <v>21.6378748803302</v>
+        <v>21.63787488033022</v>
       </c>
       <c r="M20" t="n">
-        <v>24.07630497651113</v>
+        <v>24.07630497651115</v>
       </c>
       <c r="N20" t="n">
-        <v>24.46588476203297</v>
+        <v>24.465884762033</v>
       </c>
       <c r="O20" t="n">
-        <v>23.10244120997567</v>
+        <v>23.10244120997569</v>
       </c>
       <c r="P20" t="n">
-        <v>19.71739907884659</v>
+        <v>19.71739907884661</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.80694555698086</v>
+        <v>14.80694555698088</v>
       </c>
       <c r="R20" t="n">
-        <v>8.613089732436938</v>
+        <v>8.613089732436945</v>
       </c>
       <c r="S20" t="n">
-        <v>3.124522432935853</v>
+        <v>3.124522432935855</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6002236730741278</v>
+        <v>0.6002236730741284</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01096925045024105</v>
+        <v>0.01096925045024106</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07336333010441294</v>
+        <v>0.073363330104413</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7085353196926198</v>
+        <v>0.7085353196926204</v>
       </c>
       <c r="I21" t="n">
-        <v>2.52588658473527</v>
+        <v>2.525886584735272</v>
       </c>
       <c r="J21" t="n">
-        <v>6.931225849908594</v>
+        <v>6.931225849908599</v>
       </c>
       <c r="K21" t="n">
-        <v>11.84656896690426</v>
+        <v>11.84656896690427</v>
       </c>
       <c r="L21" t="n">
-        <v>15.9291739334165</v>
+        <v>15.92917393341652</v>
       </c>
       <c r="M21" t="n">
-        <v>18.58859464970147</v>
+        <v>18.58859464970148</v>
       </c>
       <c r="N21" t="n">
-        <v>19.0805794379894</v>
+        <v>19.08057943798941</v>
       </c>
       <c r="O21" t="n">
-        <v>17.45500249199162</v>
+        <v>17.45500249199163</v>
       </c>
       <c r="P21" t="n">
-        <v>14.00917836002601</v>
+        <v>14.00917836002602</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.364764734029976</v>
+        <v>9.364764734029983</v>
       </c>
       <c r="R21" t="n">
-        <v>4.554961846307324</v>
+        <v>4.554961846307328</v>
       </c>
       <c r="S21" t="n">
-        <v>1.362691679790301</v>
+        <v>1.362691679790302</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2957057033594538</v>
+        <v>0.2957057033594541</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004826534875290327</v>
+        <v>0.004826534875290331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06150535152555758</v>
+        <v>0.06150535152555762</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5468384890181396</v>
+        <v>0.54683848901814</v>
       </c>
       <c r="I22" t="n">
-        <v>1.849633662241314</v>
+        <v>1.849633662241315</v>
       </c>
       <c r="J22" t="n">
-        <v>4.34842835285692</v>
+        <v>4.348428352856923</v>
       </c>
       <c r="K22" t="n">
-        <v>7.145803568151142</v>
+        <v>7.145803568151148</v>
       </c>
       <c r="L22" t="n">
-        <v>9.144168353172443</v>
+        <v>9.14416835317245</v>
       </c>
       <c r="M22" t="n">
-        <v>9.64124342141081</v>
+        <v>9.641243421410818</v>
       </c>
       <c r="N22" t="n">
-        <v>9.411996202088286</v>
+        <v>9.411996202088293</v>
       </c>
       <c r="O22" t="n">
-        <v>8.693501868357904</v>
+        <v>8.693501868357911</v>
       </c>
       <c r="P22" t="n">
-        <v>7.438792697236524</v>
+        <v>7.43879269723653</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.150234480926462</v>
+        <v>5.150234480926467</v>
       </c>
       <c r="R22" t="n">
-        <v>2.765504260412797</v>
+        <v>2.765504260412799</v>
       </c>
       <c r="S22" t="n">
-        <v>1.071870535222671</v>
+        <v>1.071870535222672</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2627955928819278</v>
+        <v>0.2627955928819279</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003354837355939508</v>
+        <v>0.003354837355939511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1371156306280139</v>
+        <v>0.137115630628014</v>
       </c>
       <c r="H23" t="n">
-        <v>1.404235452169148</v>
+        <v>1.404235452169149</v>
       </c>
       <c r="I23" t="n">
-        <v>5.286150349786512</v>
+        <v>5.286150349786516</v>
       </c>
       <c r="J23" t="n">
-        <v>11.63751775501441</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K23" t="n">
-        <v>17.44162239949824</v>
+        <v>17.44162239949825</v>
       </c>
       <c r="L23" t="n">
-        <v>21.63787488033032</v>
+        <v>21.63787488033034</v>
       </c>
       <c r="M23" t="n">
-        <v>24.07630497651127</v>
+        <v>24.07630497651128</v>
       </c>
       <c r="N23" t="n">
-        <v>24.46588476203311</v>
+        <v>24.46588476203313</v>
       </c>
       <c r="O23" t="n">
-        <v>23.1024412099758</v>
+        <v>23.10244120997582</v>
       </c>
       <c r="P23" t="n">
-        <v>19.7173990788467</v>
+        <v>19.71739907884672</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.80694555698095</v>
+        <v>14.80694555698096</v>
       </c>
       <c r="R23" t="n">
-        <v>8.613089732436986</v>
+        <v>8.613089732436993</v>
       </c>
       <c r="S23" t="n">
-        <v>3.12452243293587</v>
+        <v>3.124522432935873</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6002236730741312</v>
+        <v>0.6002236730741317</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01096925045024111</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07336333010441336</v>
+        <v>0.07336333010441341</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7085353196926237</v>
+        <v>0.7085353196926244</v>
       </c>
       <c r="I24" t="n">
-        <v>2.525886584735284</v>
+        <v>2.525886584735287</v>
       </c>
       <c r="J24" t="n">
-        <v>6.931225849908633</v>
+        <v>6.931225849908638</v>
       </c>
       <c r="K24" t="n">
-        <v>11.84656896690433</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L24" t="n">
-        <v>15.92917393341659</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M24" t="n">
-        <v>18.58859464970157</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N24" t="n">
-        <v>19.08057943798951</v>
+        <v>19.08057943798952</v>
       </c>
       <c r="O24" t="n">
-        <v>17.45500249199171</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P24" t="n">
-        <v>14.00917836002609</v>
+        <v>14.0091783600261</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.364764734030027</v>
+        <v>9.364764734030036</v>
       </c>
       <c r="R24" t="n">
-        <v>4.55496184630735</v>
+        <v>4.554961846307354</v>
       </c>
       <c r="S24" t="n">
-        <v>1.362691679790309</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2957057033594555</v>
+        <v>0.2957057033594557</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004826534875290354</v>
+        <v>0.004826534875290358</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06150535152555792</v>
+        <v>0.06150535152555797</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5468384890181426</v>
+        <v>0.5468384890181431</v>
       </c>
       <c r="I25" t="n">
-        <v>1.849633662241324</v>
+        <v>1.849633662241326</v>
       </c>
       <c r="J25" t="n">
-        <v>4.348428352856945</v>
+        <v>4.348428352856948</v>
       </c>
       <c r="K25" t="n">
-        <v>7.145803568151182</v>
+        <v>7.145803568151188</v>
       </c>
       <c r="L25" t="n">
-        <v>9.144168353172494</v>
+        <v>9.144168353172502</v>
       </c>
       <c r="M25" t="n">
-        <v>9.641243421410865</v>
+        <v>9.641243421410872</v>
       </c>
       <c r="N25" t="n">
-        <v>9.411996202088337</v>
+        <v>9.411996202088346</v>
       </c>
       <c r="O25" t="n">
-        <v>8.693501868357954</v>
+        <v>8.693501868357961</v>
       </c>
       <c r="P25" t="n">
-        <v>7.438792697236566</v>
+        <v>7.438792697236572</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.150234480926492</v>
+        <v>5.150234480926495</v>
       </c>
       <c r="R25" t="n">
-        <v>2.765504260412813</v>
+        <v>2.765504260412815</v>
       </c>
       <c r="S25" t="n">
-        <v>1.071870535222677</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2627955928819292</v>
+        <v>0.2627955928819294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003354837355939527</v>
+        <v>0.003354837355939529</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1371156306280139</v>
+        <v>0.137115630628014</v>
       </c>
       <c r="H26" t="n">
-        <v>1.404235452169148</v>
+        <v>1.404235452169149</v>
       </c>
       <c r="I26" t="n">
-        <v>5.286150349786512</v>
+        <v>5.286150349786516</v>
       </c>
       <c r="J26" t="n">
-        <v>11.63751775501441</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K26" t="n">
-        <v>17.44162239949824</v>
+        <v>17.44162239949825</v>
       </c>
       <c r="L26" t="n">
-        <v>21.63787488033032</v>
+        <v>21.63787488033034</v>
       </c>
       <c r="M26" t="n">
-        <v>24.07630497651127</v>
+        <v>24.07630497651128</v>
       </c>
       <c r="N26" t="n">
-        <v>24.46588476203311</v>
+        <v>24.46588476203313</v>
       </c>
       <c r="O26" t="n">
-        <v>23.1024412099758</v>
+        <v>23.10244120997582</v>
       </c>
       <c r="P26" t="n">
-        <v>19.7173990788467</v>
+        <v>19.71739907884672</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.80694555698095</v>
+        <v>14.80694555698096</v>
       </c>
       <c r="R26" t="n">
-        <v>8.613089732436986</v>
+        <v>8.613089732436993</v>
       </c>
       <c r="S26" t="n">
-        <v>3.12452243293587</v>
+        <v>3.124522432935873</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6002236730741312</v>
+        <v>0.6002236730741317</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01096925045024111</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07336333010441336</v>
+        <v>0.07336333010441341</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7085353196926237</v>
+        <v>0.7085353196926244</v>
       </c>
       <c r="I27" t="n">
-        <v>2.525886584735284</v>
+        <v>2.525886584735287</v>
       </c>
       <c r="J27" t="n">
-        <v>6.931225849908633</v>
+        <v>6.931225849908638</v>
       </c>
       <c r="K27" t="n">
-        <v>11.84656896690433</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L27" t="n">
-        <v>15.92917393341659</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M27" t="n">
-        <v>18.58859464970157</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N27" t="n">
-        <v>19.08057943798951</v>
+        <v>19.08057943798952</v>
       </c>
       <c r="O27" t="n">
-        <v>17.45500249199171</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P27" t="n">
-        <v>14.00917836002609</v>
+        <v>14.0091783600261</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.364764734030027</v>
+        <v>9.364764734030036</v>
       </c>
       <c r="R27" t="n">
-        <v>4.55496184630735</v>
+        <v>4.554961846307354</v>
       </c>
       <c r="S27" t="n">
-        <v>1.362691679790309</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2957057033594555</v>
+        <v>0.2957057033594557</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004826534875290354</v>
+        <v>0.004826534875290358</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06150535152555792</v>
+        <v>0.06150535152555797</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5468384890181426</v>
+        <v>0.5468384890181431</v>
       </c>
       <c r="I28" t="n">
-        <v>1.849633662241324</v>
+        <v>1.849633662241326</v>
       </c>
       <c r="J28" t="n">
-        <v>4.348428352856945</v>
+        <v>4.348428352856948</v>
       </c>
       <c r="K28" t="n">
-        <v>7.145803568151182</v>
+        <v>7.145803568151188</v>
       </c>
       <c r="L28" t="n">
-        <v>9.144168353172494</v>
+        <v>9.144168353172502</v>
       </c>
       <c r="M28" t="n">
-        <v>9.641243421410865</v>
+        <v>9.641243421410872</v>
       </c>
       <c r="N28" t="n">
-        <v>9.411996202088337</v>
+        <v>9.411996202088346</v>
       </c>
       <c r="O28" t="n">
-        <v>8.693501868357954</v>
+        <v>8.693501868357961</v>
       </c>
       <c r="P28" t="n">
-        <v>7.438792697236566</v>
+        <v>7.438792697236572</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.150234480926492</v>
+        <v>5.150234480926495</v>
       </c>
       <c r="R28" t="n">
-        <v>2.765504260412813</v>
+        <v>2.765504260412815</v>
       </c>
       <c r="S28" t="n">
-        <v>1.071870535222677</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2627955928819292</v>
+        <v>0.2627955928819294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003354837355939527</v>
+        <v>0.003354837355939529</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1371156306280139</v>
+        <v>0.137115630628014</v>
       </c>
       <c r="H29" t="n">
-        <v>1.404235452169148</v>
+        <v>1.404235452169149</v>
       </c>
       <c r="I29" t="n">
-        <v>5.286150349786512</v>
+        <v>5.286150349786516</v>
       </c>
       <c r="J29" t="n">
-        <v>11.63751775501441</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K29" t="n">
-        <v>17.44162239949824</v>
+        <v>17.44162239949825</v>
       </c>
       <c r="L29" t="n">
-        <v>21.63787488033032</v>
+        <v>21.63787488033034</v>
       </c>
       <c r="M29" t="n">
-        <v>24.07630497651127</v>
+        <v>24.07630497651128</v>
       </c>
       <c r="N29" t="n">
-        <v>24.46588476203311</v>
+        <v>24.46588476203313</v>
       </c>
       <c r="O29" t="n">
-        <v>23.1024412099758</v>
+        <v>23.10244120997582</v>
       </c>
       <c r="P29" t="n">
-        <v>19.7173990788467</v>
+        <v>19.71739907884672</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.80694555698095</v>
+        <v>14.80694555698096</v>
       </c>
       <c r="R29" t="n">
-        <v>8.613089732436986</v>
+        <v>8.613089732436993</v>
       </c>
       <c r="S29" t="n">
-        <v>3.12452243293587</v>
+        <v>3.124522432935873</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6002236730741312</v>
+        <v>0.6002236730741317</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01096925045024111</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07336333010441336</v>
+        <v>0.07336333010441341</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7085353196926237</v>
+        <v>0.7085353196926244</v>
       </c>
       <c r="I30" t="n">
-        <v>2.525886584735284</v>
+        <v>2.525886584735287</v>
       </c>
       <c r="J30" t="n">
-        <v>6.931225849908633</v>
+        <v>6.931225849908638</v>
       </c>
       <c r="K30" t="n">
-        <v>11.84656896690433</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L30" t="n">
-        <v>15.92917393341659</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M30" t="n">
-        <v>18.58859464970157</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N30" t="n">
-        <v>19.08057943798951</v>
+        <v>19.08057943798952</v>
       </c>
       <c r="O30" t="n">
-        <v>17.45500249199171</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P30" t="n">
-        <v>14.00917836002609</v>
+        <v>14.0091783600261</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.364764734030027</v>
+        <v>9.364764734030036</v>
       </c>
       <c r="R30" t="n">
-        <v>4.55496184630735</v>
+        <v>4.554961846307354</v>
       </c>
       <c r="S30" t="n">
-        <v>1.362691679790309</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2957057033594555</v>
+        <v>0.2957057033594557</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004826534875290354</v>
+        <v>0.004826534875290358</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06150535152555792</v>
+        <v>0.06150535152555797</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5468384890181426</v>
+        <v>0.5468384890181431</v>
       </c>
       <c r="I31" t="n">
-        <v>1.849633662241324</v>
+        <v>1.849633662241326</v>
       </c>
       <c r="J31" t="n">
-        <v>4.348428352856945</v>
+        <v>4.348428352856948</v>
       </c>
       <c r="K31" t="n">
-        <v>7.145803568151182</v>
+        <v>7.145803568151188</v>
       </c>
       <c r="L31" t="n">
-        <v>9.144168353172494</v>
+        <v>9.144168353172502</v>
       </c>
       <c r="M31" t="n">
-        <v>9.641243421410865</v>
+        <v>9.641243421410872</v>
       </c>
       <c r="N31" t="n">
-        <v>9.411996202088337</v>
+        <v>9.411996202088346</v>
       </c>
       <c r="O31" t="n">
-        <v>8.693501868357954</v>
+        <v>8.693501868357961</v>
       </c>
       <c r="P31" t="n">
-        <v>7.438792697236566</v>
+        <v>7.438792697236572</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.150234480926492</v>
+        <v>5.150234480926495</v>
       </c>
       <c r="R31" t="n">
-        <v>2.765504260412813</v>
+        <v>2.765504260412815</v>
       </c>
       <c r="S31" t="n">
-        <v>1.071870535222677</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2627955928819292</v>
+        <v>0.2627955928819294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003354837355939527</v>
+        <v>0.003354837355939529</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1371156306280139</v>
+        <v>0.137115630628014</v>
       </c>
       <c r="H32" t="n">
-        <v>1.404235452169148</v>
+        <v>1.404235452169149</v>
       </c>
       <c r="I32" t="n">
-        <v>5.286150349786512</v>
+        <v>5.286150349786516</v>
       </c>
       <c r="J32" t="n">
-        <v>11.63751775501441</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K32" t="n">
-        <v>17.44162239949824</v>
+        <v>17.44162239949825</v>
       </c>
       <c r="L32" t="n">
-        <v>21.63787488033032</v>
+        <v>21.63787488033034</v>
       </c>
       <c r="M32" t="n">
-        <v>24.07630497651127</v>
+        <v>24.07630497651128</v>
       </c>
       <c r="N32" t="n">
-        <v>24.46588476203311</v>
+        <v>24.46588476203313</v>
       </c>
       <c r="O32" t="n">
-        <v>23.1024412099758</v>
+        <v>23.10244120997582</v>
       </c>
       <c r="P32" t="n">
-        <v>19.7173990788467</v>
+        <v>19.71739907884672</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.80694555698095</v>
+        <v>14.80694555698096</v>
       </c>
       <c r="R32" t="n">
-        <v>8.613089732436986</v>
+        <v>8.613089732436993</v>
       </c>
       <c r="S32" t="n">
-        <v>3.12452243293587</v>
+        <v>3.124522432935873</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6002236730741312</v>
+        <v>0.6002236730741317</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01096925045024111</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07336333010441336</v>
+        <v>0.07336333010441341</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7085353196926237</v>
+        <v>0.7085353196926244</v>
       </c>
       <c r="I33" t="n">
-        <v>2.525886584735284</v>
+        <v>2.525886584735287</v>
       </c>
       <c r="J33" t="n">
-        <v>6.931225849908633</v>
+        <v>6.931225849908638</v>
       </c>
       <c r="K33" t="n">
-        <v>11.84656896690433</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L33" t="n">
-        <v>15.92917393341659</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M33" t="n">
-        <v>18.58859464970157</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N33" t="n">
-        <v>19.08057943798951</v>
+        <v>19.08057943798952</v>
       </c>
       <c r="O33" t="n">
-        <v>17.45500249199171</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P33" t="n">
-        <v>14.00917836002609</v>
+        <v>14.0091783600261</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.364764734030027</v>
+        <v>9.364764734030036</v>
       </c>
       <c r="R33" t="n">
-        <v>4.55496184630735</v>
+        <v>4.554961846307354</v>
       </c>
       <c r="S33" t="n">
-        <v>1.362691679790309</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2957057033594555</v>
+        <v>0.2957057033594557</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004826534875290354</v>
+        <v>0.004826534875290358</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06150535152555792</v>
+        <v>0.06150535152555797</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5468384890181426</v>
+        <v>0.5468384890181431</v>
       </c>
       <c r="I34" t="n">
-        <v>1.849633662241324</v>
+        <v>1.849633662241326</v>
       </c>
       <c r="J34" t="n">
-        <v>4.348428352856945</v>
+        <v>4.348428352856948</v>
       </c>
       <c r="K34" t="n">
-        <v>7.145803568151182</v>
+        <v>7.145803568151188</v>
       </c>
       <c r="L34" t="n">
-        <v>9.144168353172494</v>
+        <v>9.144168353172502</v>
       </c>
       <c r="M34" t="n">
-        <v>9.641243421410865</v>
+        <v>9.641243421410872</v>
       </c>
       <c r="N34" t="n">
-        <v>9.411996202088337</v>
+        <v>9.411996202088346</v>
       </c>
       <c r="O34" t="n">
-        <v>8.693501868357954</v>
+        <v>8.693501868357961</v>
       </c>
       <c r="P34" t="n">
-        <v>7.438792697236566</v>
+        <v>7.438792697236572</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.150234480926492</v>
+        <v>5.150234480926495</v>
       </c>
       <c r="R34" t="n">
-        <v>2.765504260412813</v>
+        <v>2.765504260412815</v>
       </c>
       <c r="S34" t="n">
-        <v>1.071870535222677</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2627955928819292</v>
+        <v>0.2627955928819294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003354837355939527</v>
+        <v>0.003354837355939529</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1371156306280139</v>
+        <v>0.137115630628014</v>
       </c>
       <c r="H35" t="n">
-        <v>1.404235452169148</v>
+        <v>1.404235452169149</v>
       </c>
       <c r="I35" t="n">
-        <v>5.286150349786512</v>
+        <v>5.286150349786516</v>
       </c>
       <c r="J35" t="n">
-        <v>11.63751775501441</v>
+        <v>11.63751775501442</v>
       </c>
       <c r="K35" t="n">
-        <v>17.44162239949824</v>
+        <v>17.44162239949825</v>
       </c>
       <c r="L35" t="n">
-        <v>21.63787488033032</v>
+        <v>21.63787488033034</v>
       </c>
       <c r="M35" t="n">
-        <v>24.07630497651127</v>
+        <v>24.07630497651128</v>
       </c>
       <c r="N35" t="n">
-        <v>24.46588476203311</v>
+        <v>24.46588476203313</v>
       </c>
       <c r="O35" t="n">
-        <v>23.1024412099758</v>
+        <v>23.10244120997582</v>
       </c>
       <c r="P35" t="n">
-        <v>19.7173990788467</v>
+        <v>19.71739907884672</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.80694555698095</v>
+        <v>14.80694555698096</v>
       </c>
       <c r="R35" t="n">
-        <v>8.613089732436986</v>
+        <v>8.613089732436993</v>
       </c>
       <c r="S35" t="n">
-        <v>3.12452243293587</v>
+        <v>3.124522432935873</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6002236730741312</v>
+        <v>0.6002236730741317</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01096925045024111</v>
+        <v>0.01096925045024112</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07336333010441336</v>
+        <v>0.07336333010441341</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7085353196926237</v>
+        <v>0.7085353196926244</v>
       </c>
       <c r="I36" t="n">
-        <v>2.525886584735284</v>
+        <v>2.525886584735287</v>
       </c>
       <c r="J36" t="n">
-        <v>6.931225849908633</v>
+        <v>6.931225849908638</v>
       </c>
       <c r="K36" t="n">
-        <v>11.84656896690433</v>
+        <v>11.84656896690434</v>
       </c>
       <c r="L36" t="n">
-        <v>15.92917393341659</v>
+        <v>15.92917393341661</v>
       </c>
       <c r="M36" t="n">
-        <v>18.58859464970157</v>
+        <v>18.58859464970159</v>
       </c>
       <c r="N36" t="n">
-        <v>19.08057943798951</v>
+        <v>19.08057943798952</v>
       </c>
       <c r="O36" t="n">
-        <v>17.45500249199171</v>
+        <v>17.45500249199173</v>
       </c>
       <c r="P36" t="n">
-        <v>14.00917836002609</v>
+        <v>14.0091783600261</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.364764734030027</v>
+        <v>9.364764734030036</v>
       </c>
       <c r="R36" t="n">
-        <v>4.55496184630735</v>
+        <v>4.554961846307354</v>
       </c>
       <c r="S36" t="n">
-        <v>1.362691679790309</v>
+        <v>1.36269167979031</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2957057033594555</v>
+        <v>0.2957057033594557</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004826534875290354</v>
+        <v>0.004826534875290358</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06150535152555792</v>
+        <v>0.06150535152555797</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5468384890181426</v>
+        <v>0.5468384890181431</v>
       </c>
       <c r="I37" t="n">
-        <v>1.849633662241324</v>
+        <v>1.849633662241326</v>
       </c>
       <c r="J37" t="n">
-        <v>4.348428352856945</v>
+        <v>4.348428352856948</v>
       </c>
       <c r="K37" t="n">
-        <v>7.145803568151182</v>
+        <v>7.145803568151188</v>
       </c>
       <c r="L37" t="n">
-        <v>9.144168353172494</v>
+        <v>9.144168353172502</v>
       </c>
       <c r="M37" t="n">
-        <v>9.641243421410865</v>
+        <v>9.641243421410872</v>
       </c>
       <c r="N37" t="n">
-        <v>9.411996202088337</v>
+        <v>9.411996202088346</v>
       </c>
       <c r="O37" t="n">
-        <v>8.693501868357954</v>
+        <v>8.693501868357961</v>
       </c>
       <c r="P37" t="n">
-        <v>7.438792697236566</v>
+        <v>7.438792697236572</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.150234480926492</v>
+        <v>5.150234480926495</v>
       </c>
       <c r="R37" t="n">
-        <v>2.765504260412813</v>
+        <v>2.765504260412815</v>
       </c>
       <c r="S37" t="n">
-        <v>1.071870535222677</v>
+        <v>1.071870535222678</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2627955928819292</v>
+        <v>0.2627955928819294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003354837355939527</v>
+        <v>0.003354837355939529</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1371156306280141</v>
+        <v>0.1371156306280149</v>
       </c>
       <c r="H38" t="n">
-        <v>1.40423545216915</v>
+        <v>1.404235452169158</v>
       </c>
       <c r="I38" t="n">
-        <v>5.286150349786518</v>
+        <v>5.286150349786547</v>
       </c>
       <c r="J38" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501449</v>
       </c>
       <c r="K38" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949836</v>
       </c>
       <c r="L38" t="n">
-        <v>21.63787488033035</v>
+        <v>21.63787488033047</v>
       </c>
       <c r="M38" t="n">
-        <v>24.0763049765113</v>
+        <v>24.07630497651143</v>
       </c>
       <c r="N38" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203328</v>
       </c>
       <c r="O38" t="n">
-        <v>23.10244120997583</v>
+        <v>23.10244120997596</v>
       </c>
       <c r="P38" t="n">
-        <v>19.71739907884673</v>
+        <v>19.71739907884684</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.80694555698097</v>
+        <v>14.80694555698105</v>
       </c>
       <c r="R38" t="n">
-        <v>8.613089732436997</v>
+        <v>8.613089732437047</v>
       </c>
       <c r="S38" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935892</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6002236730741319</v>
+        <v>0.6002236730741354</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.01096925045024119</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07336333010441344</v>
+        <v>0.07336333010441386</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7085353196926246</v>
+        <v>0.7085353196926286</v>
       </c>
       <c r="I39" t="n">
-        <v>2.525886584735288</v>
+        <v>2.525886584735302</v>
       </c>
       <c r="J39" t="n">
-        <v>6.931225849908642</v>
+        <v>6.93122584990868</v>
       </c>
       <c r="K39" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690441</v>
       </c>
       <c r="L39" t="n">
-        <v>15.92917393341661</v>
+        <v>15.9291739334167</v>
       </c>
       <c r="M39" t="n">
-        <v>18.58859464970159</v>
+        <v>18.5885946497017</v>
       </c>
       <c r="N39" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798964</v>
       </c>
       <c r="O39" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199183</v>
       </c>
       <c r="P39" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002619</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.36476473403004</v>
+        <v>9.364764734030093</v>
       </c>
       <c r="R39" t="n">
-        <v>4.554961846307355</v>
+        <v>4.554961846307381</v>
       </c>
       <c r="S39" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790318</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594575</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00482653487529036</v>
+        <v>0.004826534875290387</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555834</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5468384890181434</v>
+        <v>0.5468384890181464</v>
       </c>
       <c r="I40" t="n">
-        <v>1.849633662241327</v>
+        <v>1.849633662241337</v>
       </c>
       <c r="J40" t="n">
-        <v>4.34842835285695</v>
+        <v>4.348428352856975</v>
       </c>
       <c r="K40" t="n">
-        <v>7.145803568151191</v>
+        <v>7.145803568151232</v>
       </c>
       <c r="L40" t="n">
-        <v>9.144168353172505</v>
+        <v>9.144168353172557</v>
       </c>
       <c r="M40" t="n">
-        <v>9.641243421410877</v>
+        <v>9.64124342141093</v>
       </c>
       <c r="N40" t="n">
-        <v>9.41199620208835</v>
+        <v>9.411996202088403</v>
       </c>
       <c r="O40" t="n">
-        <v>8.693501868357965</v>
+        <v>8.693501868358013</v>
       </c>
       <c r="P40" t="n">
-        <v>7.438792697236575</v>
+        <v>7.438792697236617</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.150234480926498</v>
+        <v>5.150234480926526</v>
       </c>
       <c r="R40" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412832</v>
       </c>
       <c r="S40" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222684</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2627955928819296</v>
+        <v>0.2627955928819311</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003354837355939531</v>
+        <v>0.00335483735593955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1371156306280141</v>
+        <v>0.1371156306280149</v>
       </c>
       <c r="H41" t="n">
-        <v>1.40423545216915</v>
+        <v>1.404235452169158</v>
       </c>
       <c r="I41" t="n">
-        <v>5.286150349786518</v>
+        <v>5.286150349786547</v>
       </c>
       <c r="J41" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501449</v>
       </c>
       <c r="K41" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949836</v>
       </c>
       <c r="L41" t="n">
-        <v>21.63787488033035</v>
+        <v>21.63787488033047</v>
       </c>
       <c r="M41" t="n">
-        <v>24.0763049765113</v>
+        <v>24.07630497651143</v>
       </c>
       <c r="N41" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203328</v>
       </c>
       <c r="O41" t="n">
-        <v>23.10244120997583</v>
+        <v>23.10244120997596</v>
       </c>
       <c r="P41" t="n">
-        <v>19.71739907884673</v>
+        <v>19.71739907884684</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.80694555698097</v>
+        <v>14.80694555698105</v>
       </c>
       <c r="R41" t="n">
-        <v>8.613089732436997</v>
+        <v>8.613089732437047</v>
       </c>
       <c r="S41" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935892</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6002236730741319</v>
+        <v>0.6002236730741354</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.01096925045024119</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07336333010441344</v>
+        <v>0.07336333010441386</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7085353196926246</v>
+        <v>0.7085353196926286</v>
       </c>
       <c r="I42" t="n">
-        <v>2.525886584735288</v>
+        <v>2.525886584735302</v>
       </c>
       <c r="J42" t="n">
-        <v>6.931225849908642</v>
+        <v>6.93122584990868</v>
       </c>
       <c r="K42" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690441</v>
       </c>
       <c r="L42" t="n">
-        <v>15.92917393341661</v>
+        <v>15.9291739334167</v>
       </c>
       <c r="M42" t="n">
-        <v>18.58859464970159</v>
+        <v>18.5885946497017</v>
       </c>
       <c r="N42" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798964</v>
       </c>
       <c r="O42" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199183</v>
       </c>
       <c r="P42" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002619</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.36476473403004</v>
+        <v>9.364764734030093</v>
       </c>
       <c r="R42" t="n">
-        <v>4.554961846307355</v>
+        <v>4.554961846307381</v>
       </c>
       <c r="S42" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790318</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594575</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00482653487529036</v>
+        <v>0.004826534875290387</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555834</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5468384890181434</v>
+        <v>0.5468384890181464</v>
       </c>
       <c r="I43" t="n">
-        <v>1.849633662241327</v>
+        <v>1.849633662241337</v>
       </c>
       <c r="J43" t="n">
-        <v>4.34842835285695</v>
+        <v>4.348428352856975</v>
       </c>
       <c r="K43" t="n">
-        <v>7.145803568151191</v>
+        <v>7.145803568151232</v>
       </c>
       <c r="L43" t="n">
-        <v>9.144168353172505</v>
+        <v>9.144168353172557</v>
       </c>
       <c r="M43" t="n">
-        <v>9.641243421410877</v>
+        <v>9.64124342141093</v>
       </c>
       <c r="N43" t="n">
-        <v>9.41199620208835</v>
+        <v>9.411996202088403</v>
       </c>
       <c r="O43" t="n">
-        <v>8.693501868357965</v>
+        <v>8.693501868358013</v>
       </c>
       <c r="P43" t="n">
-        <v>7.438792697236575</v>
+        <v>7.438792697236617</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.150234480926498</v>
+        <v>5.150234480926526</v>
       </c>
       <c r="R43" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412832</v>
       </c>
       <c r="S43" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222684</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2627955928819296</v>
+        <v>0.2627955928819311</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003354837355939531</v>
+        <v>0.00335483735593955</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1371156306280141</v>
+        <v>0.1371156306280149</v>
       </c>
       <c r="H44" t="n">
-        <v>1.40423545216915</v>
+        <v>1.404235452169158</v>
       </c>
       <c r="I44" t="n">
-        <v>5.286150349786518</v>
+        <v>5.286150349786547</v>
       </c>
       <c r="J44" t="n">
-        <v>11.63751775501442</v>
+        <v>11.63751775501449</v>
       </c>
       <c r="K44" t="n">
-        <v>17.44162239949826</v>
+        <v>17.44162239949836</v>
       </c>
       <c r="L44" t="n">
-        <v>21.63787488033035</v>
+        <v>21.63787488033047</v>
       </c>
       <c r="M44" t="n">
-        <v>24.0763049765113</v>
+        <v>24.07630497651143</v>
       </c>
       <c r="N44" t="n">
-        <v>24.46588476203314</v>
+        <v>24.46588476203328</v>
       </c>
       <c r="O44" t="n">
-        <v>23.10244120997583</v>
+        <v>23.10244120997596</v>
       </c>
       <c r="P44" t="n">
-        <v>19.71739907884673</v>
+        <v>19.71739907884684</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.80694555698097</v>
+        <v>14.80694555698105</v>
       </c>
       <c r="R44" t="n">
-        <v>8.613089732436997</v>
+        <v>8.613089732437047</v>
       </c>
       <c r="S44" t="n">
-        <v>3.124522432935874</v>
+        <v>3.124522432935892</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6002236730741319</v>
+        <v>0.6002236730741354</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01096925045024112</v>
+        <v>0.01096925045024119</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07336333010441344</v>
+        <v>0.07336333010441386</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7085353196926246</v>
+        <v>0.7085353196926286</v>
       </c>
       <c r="I45" t="n">
-        <v>2.525886584735288</v>
+        <v>2.525886584735302</v>
       </c>
       <c r="J45" t="n">
-        <v>6.931225849908642</v>
+        <v>6.93122584990868</v>
       </c>
       <c r="K45" t="n">
-        <v>11.84656896690434</v>
+        <v>11.84656896690441</v>
       </c>
       <c r="L45" t="n">
-        <v>15.92917393341661</v>
+        <v>15.9291739334167</v>
       </c>
       <c r="M45" t="n">
-        <v>18.58859464970159</v>
+        <v>18.5885946497017</v>
       </c>
       <c r="N45" t="n">
-        <v>19.08057943798953</v>
+        <v>19.08057943798964</v>
       </c>
       <c r="O45" t="n">
-        <v>17.45500249199173</v>
+        <v>17.45500249199183</v>
       </c>
       <c r="P45" t="n">
-        <v>14.00917836002611</v>
+        <v>14.00917836002619</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.36476473403004</v>
+        <v>9.364764734030093</v>
       </c>
       <c r="R45" t="n">
-        <v>4.554961846307355</v>
+        <v>4.554961846307381</v>
       </c>
       <c r="S45" t="n">
-        <v>1.36269167979031</v>
+        <v>1.362691679790318</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2957057033594558</v>
+        <v>0.2957057033594575</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00482653487529036</v>
+        <v>0.004826534875290387</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06150535152555799</v>
+        <v>0.06150535152555834</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5468384890181434</v>
+        <v>0.5468384890181464</v>
       </c>
       <c r="I46" t="n">
-        <v>1.849633662241327</v>
+        <v>1.849633662241337</v>
       </c>
       <c r="J46" t="n">
-        <v>4.34842835285695</v>
+        <v>4.348428352856975</v>
       </c>
       <c r="K46" t="n">
-        <v>7.145803568151191</v>
+        <v>7.145803568151232</v>
       </c>
       <c r="L46" t="n">
-        <v>9.144168353172505</v>
+        <v>9.144168353172557</v>
       </c>
       <c r="M46" t="n">
-        <v>9.641243421410877</v>
+        <v>9.64124342141093</v>
       </c>
       <c r="N46" t="n">
-        <v>9.41199620208835</v>
+        <v>9.411996202088403</v>
       </c>
       <c r="O46" t="n">
-        <v>8.693501868357965</v>
+        <v>8.693501868358013</v>
       </c>
       <c r="P46" t="n">
-        <v>7.438792697236575</v>
+        <v>7.438792697236617</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.150234480926498</v>
+        <v>5.150234480926526</v>
       </c>
       <c r="R46" t="n">
-        <v>2.765504260412816</v>
+        <v>2.765504260412832</v>
       </c>
       <c r="S46" t="n">
-        <v>1.071870535222678</v>
+        <v>1.071870535222684</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2627955928819296</v>
+        <v>0.2627955928819311</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003354837355939531</v>
+        <v>0.00335483735593955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>147.5918456237786</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>176.5650354103358</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O9" t="n">
-        <v>445.0368534430332</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="N12" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35664,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>26.64359211279304</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35892,10 +35892,10 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M17" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N17" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O17" t="n">
         <v>673.2346194090717</v>
@@ -35907,7 +35907,7 @@
         <v>339.2120029259628</v>
       </c>
       <c r="R17" t="n">
-        <v>49.57939850977518</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M18" t="n">
-        <v>432.0025916324112</v>
+        <v>88.64331214030625</v>
       </c>
       <c r="N18" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>728.5227707201678</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.57322573185747</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K19" t="n">
         <v>163.2592659138461</v>
@@ -36062,7 +36062,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.34016357437177</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>785.2547904576066</v>
       </c>
       <c r="O20" t="n">
-        <v>673.2346194090715</v>
+        <v>673.2346194090716</v>
       </c>
       <c r="P20" t="n">
         <v>554.2191141486966</v>
@@ -36144,7 +36144,7 @@
         <v>339.2120029259627</v>
       </c>
       <c r="R20" t="n">
-        <v>49.57939850977514</v>
+        <v>49.57939850977515</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>201.6916880343866</v>
       </c>
       <c r="K21" t="n">
         <v>472.2569288308424</v>
       </c>
       <c r="L21" t="n">
-        <v>683.6950041549197</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M21" t="n">
-        <v>870.0805953512839</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>36.05633477838885</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>581.3888677423796</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>123.0563743529067</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>215.1917626463399</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.34016357437174</v>
+        <v>71.34016357437176</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>808.2364978974749</v>
       </c>
       <c r="N23" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O23" t="n">
         <v>673.2346194090717</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>659.6174755300381</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>728.5227707201678</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.57322573185747</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K25" t="n">
         <v>163.2592659138461</v>
@@ -36536,7 +36536,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.34016357437177</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>808.2364978974749</v>
       </c>
       <c r="N26" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O26" t="n">
         <v>673.2346194090717</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L27" t="n">
-        <v>683.6950041549198</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="M27" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>508.3132636092311</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.57322573185747</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K28" t="n">
         <v>163.2592659138461</v>
@@ -36773,7 +36773,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.34016357437177</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>808.2364978974749</v>
       </c>
       <c r="N29" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O29" t="n">
         <v>673.2346194090717</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>432.0025916324112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>728.5227707201678</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.57322573185747</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K31" t="n">
         <v>163.2592659138461</v>
@@ -37010,7 +37010,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.34016357437177</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>808.2364978974749</v>
       </c>
       <c r="N32" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O32" t="n">
         <v>673.2346194090717</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>51.02332610379177</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>683.6950041549198</v>
       </c>
       <c r="M33" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>290.444767001295</v>
+        <v>728.5227707201678</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.57322573185747</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K34" t="n">
         <v>163.2592659138461</v>
@@ -37247,7 +37247,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.34016357437177</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>808.2364978974749</v>
       </c>
       <c r="N35" t="n">
-        <v>785.2547904576068</v>
+        <v>785.2547904576069</v>
       </c>
       <c r="O35" t="n">
         <v>673.2346194090717</v>
@@ -37387,28 +37387,28 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K36" t="n">
-        <v>88.75307896690822</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="M36" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.41306221260018</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.57322573185747</v>
+        <v>18.57322573185748</v>
       </c>
       <c r="K37" t="n">
         <v>163.2592659138461</v>
@@ -37484,7 +37484,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.34016357437177</v>
+        <v>71.34016357437179</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>268.3905192375945</v>
+        <v>268.3905192375946</v>
       </c>
       <c r="K38" t="n">
-        <v>561.0370780651947</v>
+        <v>561.0370780651948</v>
       </c>
       <c r="L38" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199648</v>
       </c>
       <c r="M38" t="n">
-        <v>808.2364978974749</v>
+        <v>808.236497897475</v>
       </c>
       <c r="N38" t="n">
-        <v>785.2547904576069</v>
+        <v>785.254790457607</v>
       </c>
       <c r="O38" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090718</v>
       </c>
       <c r="P38" t="n">
-        <v>554.2191141486967</v>
+        <v>554.2191141486968</v>
       </c>
       <c r="Q38" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259629</v>
       </c>
       <c r="R38" t="n">
-        <v>49.5793985097752</v>
+        <v>49.57939850977525</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K39" t="n">
-        <v>472.2569288308424</v>
+        <v>472.2569288308425</v>
       </c>
       <c r="L39" t="n">
-        <v>409.5953044056573</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.595304405657</v>
       </c>
       <c r="P39" t="n">
-        <v>581.3888677423797</v>
+        <v>581.3888677423798</v>
       </c>
       <c r="Q39" t="n">
         <v>362.7430118895688</v>
       </c>
       <c r="R39" t="n">
-        <v>34.41306221260018</v>
+        <v>34.4130622126002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.57322573185748</v>
+        <v>18.5732257318575</v>
       </c>
       <c r="K40" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L40" t="n">
-        <v>271.6664918683852</v>
+        <v>271.6664918683853</v>
       </c>
       <c r="M40" t="n">
-        <v>301.8271590178687</v>
+        <v>301.8271590178688</v>
       </c>
       <c r="N40" t="n">
-        <v>293.0875339740583</v>
+        <v>293.0875339740584</v>
       </c>
       <c r="O40" t="n">
         <v>270.8759365415642</v>
@@ -37721,7 +37721,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437181</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>268.3905192375945</v>
+        <v>268.3905192375946</v>
       </c>
       <c r="K41" t="n">
-        <v>561.0370780651947</v>
+        <v>561.0370780651948</v>
       </c>
       <c r="L41" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199648</v>
       </c>
       <c r="M41" t="n">
-        <v>808.2364978974749</v>
+        <v>808.236497897475</v>
       </c>
       <c r="N41" t="n">
-        <v>785.2547904576069</v>
+        <v>785.254790457607</v>
       </c>
       <c r="O41" t="n">
-        <v>507.7355390574432</v>
+        <v>673.2346194090718</v>
       </c>
       <c r="P41" t="n">
-        <v>554.2191141486967</v>
+        <v>554.2191141486968</v>
       </c>
       <c r="Q41" t="n">
-        <v>339.2120029259628</v>
+        <v>223.2923210841106</v>
       </c>
       <c r="R41" t="n">
-        <v>49.5793985097752</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K42" t="n">
-        <v>472.2569288308424</v>
+        <v>472.2569288308425</v>
       </c>
       <c r="L42" t="n">
-        <v>683.6950041549198</v>
+        <v>409.5953044056569</v>
       </c>
       <c r="M42" t="n">
-        <v>177.6141594095051</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>728.5227707201678</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>581.3888677423798</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>34.4130622126002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.57322573185748</v>
+        <v>18.5732257318575</v>
       </c>
       <c r="K43" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L43" t="n">
-        <v>271.6664918683852</v>
+        <v>271.6664918683853</v>
       </c>
       <c r="M43" t="n">
-        <v>301.8271590178687</v>
+        <v>301.8271590178688</v>
       </c>
       <c r="N43" t="n">
-        <v>293.0875339740583</v>
+        <v>293.0875339740584</v>
       </c>
       <c r="O43" t="n">
         <v>270.8759365415642</v>
@@ -37958,7 +37958,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437181</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.3905192375945</v>
+        <v>152.470837395742</v>
       </c>
       <c r="K44" t="n">
-        <v>395.5379977135664</v>
+        <v>561.0370780651948</v>
       </c>
       <c r="L44" t="n">
-        <v>741.4271676199647</v>
+        <v>741.4271676199648</v>
       </c>
       <c r="M44" t="n">
-        <v>808.2364978974749</v>
+        <v>808.236497897475</v>
       </c>
       <c r="N44" t="n">
-        <v>785.2547904576069</v>
+        <v>785.254790457607</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2346194090717</v>
+        <v>673.2346194090718</v>
       </c>
       <c r="P44" t="n">
-        <v>554.2191141486967</v>
+        <v>554.2191141486968</v>
       </c>
       <c r="Q44" t="n">
-        <v>339.2120029259628</v>
+        <v>339.2120029259629</v>
       </c>
       <c r="R44" t="n">
-        <v>49.5793985097752</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K45" t="n">
-        <v>472.2569288308424</v>
+        <v>472.2569288308425</v>
       </c>
       <c r="L45" t="n">
-        <v>498.566151674856</v>
+        <v>409.5953044056569</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>728.5227707201678</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>581.3888677423798</v>
       </c>
       <c r="Q45" t="n">
         <v>362.7430118895688</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.4130622126002</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.57322573185748</v>
+        <v>18.5732257318575</v>
       </c>
       <c r="K46" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L46" t="n">
-        <v>271.6664918683852</v>
+        <v>271.6664918683853</v>
       </c>
       <c r="M46" t="n">
-        <v>301.8271590178687</v>
+        <v>301.8271590178688</v>
       </c>
       <c r="N46" t="n">
-        <v>293.0875339740583</v>
+        <v>293.0875339740584</v>
       </c>
       <c r="O46" t="n">
         <v>270.8759365415642</v>
@@ -38195,7 +38195,7 @@
         <v>215.19176264634</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.34016357437179</v>
+        <v>71.34016357437181</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
